--- a/data/safira_cana_planta.xlsx
+++ b/data/safira_cana_planta.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,21 @@
           <t>comprimento</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>volume_cm3_dm3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>area_cm2_dm3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_cm_dm3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -432,6 +447,15 @@
       <c r="H2">
         <v>1267.04589706659</v>
       </c>
+      <c r="I2">
+        <v>3.351166849263158</v>
+      </c>
+      <c r="J2">
+        <v>90.74026724210526</v>
+      </c>
+      <c r="K2">
+        <v>266.7465046455979</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,6 +490,15 @@
       <c r="H3">
         <v>829.866975456476</v>
       </c>
+      <c r="I3">
+        <v>4.693151396147369</v>
+      </c>
+      <c r="J3">
+        <v>82.06963163368422</v>
+      </c>
+      <c r="K3">
+        <v>174.7088369382055</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +533,15 @@
       <c r="H4">
         <v>239.640870302916</v>
       </c>
+      <c r="I4">
+        <v>1.562262044210526</v>
+      </c>
+      <c r="J4">
+        <v>27.821574</v>
+      </c>
+      <c r="K4">
+        <v>50.45070953745601</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +576,15 @@
       <c r="H5">
         <v>2936.63346922398</v>
       </c>
+      <c r="I5">
+        <v>5.752896305810527</v>
+      </c>
+      <c r="J5">
+        <v>173.221967911579</v>
+      </c>
+      <c r="K5">
+        <v>618.2386250997853</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -568,6 +619,15 @@
       <c r="H6">
         <v>3571.11430312693</v>
       </c>
+      <c r="I6">
+        <v>11.67503847427368</v>
+      </c>
+      <c r="J6">
+        <v>271.6701719621053</v>
+      </c>
+      <c r="K6">
+        <v>751.8135375004063</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -602,6 +662,15 @@
       <c r="H7">
         <v>1357.16249629855</v>
       </c>
+      <c r="I7">
+        <v>6.607306417263158</v>
+      </c>
+      <c r="J7">
+        <v>105.9854692442105</v>
+      </c>
+      <c r="K7">
+        <v>285.7184202733789</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -636,6 +705,15 @@
       <c r="H8">
         <v>642.693928077817</v>
       </c>
+      <c r="I8">
+        <v>1.851242374568421</v>
+      </c>
+      <c r="J8">
+        <v>47.61016046736842</v>
+      </c>
+      <c r="K8">
+        <v>135.3039848584878</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -670,6 +748,15 @@
       <c r="H9">
         <v>47.7842741012573</v>
       </c>
+      <c r="I9">
+        <v>0.0772554332631579</v>
+      </c>
+      <c r="J9">
+        <v>2.772195305263158</v>
+      </c>
+      <c r="K9">
+        <v>10.05984717921207</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -704,6 +791,15 @@
       <c r="H10">
         <v>3911.74443353713</v>
       </c>
+      <c r="I10">
+        <v>8.512024420568421</v>
+      </c>
+      <c r="J10">
+        <v>232.7372274442105</v>
+      </c>
+      <c r="K10">
+        <v>823.5251439025537</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -738,6 +834,15 @@
       <c r="H11">
         <v>1396.59297868609</v>
       </c>
+      <c r="I11">
+        <v>2.250405597810526</v>
+      </c>
+      <c r="J11">
+        <v>77.66196274105265</v>
+      </c>
+      <c r="K11">
+        <v>294.0195744602295</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -772,6 +877,15 @@
       <c r="H12">
         <v>363.10868562758</v>
       </c>
+      <c r="I12">
+        <v>2.783947938947369</v>
+      </c>
+      <c r="J12">
+        <v>44.86441652631579</v>
+      </c>
+      <c r="K12">
+        <v>76.44393381633263</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -806,6 +920,15 @@
       <c r="H13">
         <v>1975.37827983499</v>
       </c>
+      <c r="I13">
+        <v>3.992151330736843</v>
+      </c>
+      <c r="J13">
+        <v>122.4105693473684</v>
+      </c>
+      <c r="K13">
+        <v>415.8691115442085</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -840,6 +963,15 @@
       <c r="H14">
         <v>1663.93286052346</v>
       </c>
+      <c r="I14">
+        <v>3.806496220042106</v>
+      </c>
+      <c r="J14">
+        <v>105.0628006357895</v>
+      </c>
+      <c r="K14">
+        <v>350.3016548470442</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -874,6 +1006,15 @@
       <c r="H15">
         <v>2845.98495420814</v>
       </c>
+      <c r="I15">
+        <v>9.330511474842107</v>
+      </c>
+      <c r="J15">
+        <v>205.9186638736842</v>
+      </c>
+      <c r="K15">
+        <v>599.1547272017137</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -908,6 +1049,15 @@
       <c r="H16">
         <v>1093.89645287395</v>
       </c>
+      <c r="I16">
+        <v>4.929034110736843</v>
+      </c>
+      <c r="J16">
+        <v>98.13871478105264</v>
+      </c>
+      <c r="K16">
+        <v>230.2939900787263</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -942,6 +1092,15 @@
       <c r="H17">
         <v>216.102864027023</v>
       </c>
+      <c r="I17">
+        <v>0.4750815332631579</v>
+      </c>
+      <c r="J17">
+        <v>13.91260854736842</v>
+      </c>
+      <c r="K17">
+        <v>45.49533979516274</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -976,6 +1135,15 @@
       <c r="H18">
         <v>293.948076710105</v>
       </c>
+      <c r="I18">
+        <v>0.1721581297052632</v>
+      </c>
+      <c r="J18">
+        <v>10.4894115031579</v>
+      </c>
+      <c r="K18">
+        <v>61.88380562318</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1010,6 +1178,15 @@
       <c r="H19">
         <v>1939.47662207484</v>
       </c>
+      <c r="I19">
+        <v>2.778527349705263</v>
+      </c>
+      <c r="J19">
+        <v>100.7358611452632</v>
+      </c>
+      <c r="K19">
+        <v>408.3108678052295</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1044,6 +1221,15 @@
       <c r="H20">
         <v>637.549638926983</v>
       </c>
+      <c r="I20">
+        <v>3.979530952842106</v>
+      </c>
+      <c r="J20">
+        <v>63.6915404</v>
+      </c>
+      <c r="K20">
+        <v>134.2209766162069</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1078,6 +1264,15 @@
       <c r="H21">
         <v>580.075658231974</v>
       </c>
+      <c r="I21">
+        <v>3.136567203557895</v>
+      </c>
+      <c r="J21">
+        <v>53.16588870736842</v>
+      </c>
+      <c r="K21">
+        <v>122.1211912067314</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1112,6 +1307,15 @@
       <c r="H22">
         <v>1438.98992925882</v>
       </c>
+      <c r="I22">
+        <v>41.97080872463158</v>
+      </c>
+      <c r="J22">
+        <v>813.5353737621053</v>
+      </c>
+      <c r="K22">
+        <v>302.9452482650148</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1146,6 +1350,15 @@
       <c r="H23">
         <v>3080.67969334126</v>
       </c>
+      <c r="I23">
+        <v>8.880253050399999</v>
+      </c>
+      <c r="J23">
+        <v>214.4468619978947</v>
+      </c>
+      <c r="K23">
+        <v>648.5641459665811</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1180,6 +1393,15 @@
       <c r="H24">
         <v>156.956790670753</v>
       </c>
+      <c r="I24">
+        <v>0.4057329838947369</v>
+      </c>
+      <c r="J24">
+        <v>11.71143556631579</v>
+      </c>
+      <c r="K24">
+        <v>33.04353487805327</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1214,6 +1436,15 @@
       <c r="H25">
         <v>2172.78481376171</v>
       </c>
+      <c r="I25">
+        <v>6.629473574336842</v>
+      </c>
+      <c r="J25">
+        <v>160.1976830568421</v>
+      </c>
+      <c r="K25">
+        <v>457.4283818445706</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1248,6 +1479,15 @@
       <c r="H26">
         <v>2043.97689397633</v>
       </c>
+      <c r="I26">
+        <v>4.940999035810527</v>
+      </c>
+      <c r="J26">
+        <v>131.2179087852632</v>
+      </c>
+      <c r="K26">
+        <v>430.3109250476484</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1282,6 +1522,15 @@
       <c r="H27">
         <v>60.6965613663197</v>
       </c>
+      <c r="I27">
+        <v>0.0820815800631579</v>
+      </c>
+      <c r="J27">
+        <v>3.014797389473685</v>
+      </c>
+      <c r="K27">
+        <v>12.77822344554099</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1316,6 +1565,15 @@
       <c r="H28">
         <v>4131.62300653756</v>
       </c>
+      <c r="I28">
+        <v>13.6762864016</v>
+      </c>
+      <c r="J28">
+        <v>296.9892338905264</v>
+      </c>
+      <c r="K28">
+        <v>869.8153697973811</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1350,6 +1608,15 @@
       <c r="H29">
         <v>202.082407623529</v>
       </c>
+      <c r="I29">
+        <v>0.5804620310947368</v>
+      </c>
+      <c r="J29">
+        <v>15.69426858947369</v>
+      </c>
+      <c r="K29">
+        <v>42.54366476284822</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1384,6 +1651,15 @@
       <c r="H30">
         <v>587.74931076169</v>
       </c>
+      <c r="I30">
+        <v>1.249397937789474</v>
+      </c>
+      <c r="J30">
+        <v>36.89789842526316</v>
+      </c>
+      <c r="K30">
+        <v>123.7366970024611</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1418,6 +1694,15 @@
       <c r="H31">
         <v>5285.25400102139</v>
       </c>
+      <c r="I31">
+        <v>17.68310916126316</v>
+      </c>
+      <c r="J31">
+        <v>374.0538568463158</v>
+      </c>
+      <c r="K31">
+        <v>1112.685052846608</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1452,6 +1737,15 @@
       <c r="H32">
         <v>2049.07706314325</v>
       </c>
+      <c r="I32">
+        <v>5.924979701410527</v>
+      </c>
+      <c r="J32">
+        <v>141.4486845915789</v>
+      </c>
+      <c r="K32">
+        <v>431.3846448722632</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1486,6 +1780,15 @@
       <c r="H33">
         <v>1495.45234002173</v>
       </c>
+      <c r="I33">
+        <v>1.795074395557895</v>
+      </c>
+      <c r="J33">
+        <v>72.64749219789475</v>
+      </c>
+      <c r="K33">
+        <v>314.8320715835221</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1520,6 +1823,15 @@
       <c r="H34">
         <v>1006.59189459682</v>
       </c>
+      <c r="I34">
+        <v>5.002326765010526</v>
+      </c>
+      <c r="J34">
+        <v>92.29313824210526</v>
+      </c>
+      <c r="K34">
+        <v>211.9140830730148</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1554,6 +1866,15 @@
       <c r="H35">
         <v>1123.45822021365</v>
       </c>
+      <c r="I35">
+        <v>1.689553236168421</v>
+      </c>
+      <c r="J35">
+        <v>62.12887537473684</v>
+      </c>
+      <c r="K35">
+        <v>236.517520044979</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1588,6 +1909,15 @@
       <c r="H36">
         <v>2774.26303608716</v>
       </c>
+      <c r="I36">
+        <v>7.7714278752</v>
+      </c>
+      <c r="J36">
+        <v>195.2661606168421</v>
+      </c>
+      <c r="K36">
+        <v>584.0553760183495</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1622,6 +1952,15 @@
       <c r="H37">
         <v>493.833147168159</v>
       </c>
+      <c r="I37">
+        <v>1.132436801431579</v>
+      </c>
+      <c r="J37">
+        <v>30.74581768842105</v>
+      </c>
+      <c r="K37">
+        <v>103.9648730880335</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1656,6 +1995,15 @@
       <c r="H38">
         <v>360.190888822079</v>
       </c>
+      <c r="I38">
+        <v>3.144676924210526</v>
+      </c>
+      <c r="J38">
+        <v>44.62719343157895</v>
+      </c>
+      <c r="K38">
+        <v>75.8296608046482</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1690,6 +2038,15 @@
       <c r="H39">
         <v>3981.38750062883</v>
       </c>
+      <c r="I39">
+        <v>5.615950019452632</v>
+      </c>
+      <c r="J39">
+        <v>200.7984088926316</v>
+      </c>
+      <c r="K39">
+        <v>838.1868422376484</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1724,6 +2081,15 @@
       <c r="H40">
         <v>90.7945650815964</v>
       </c>
+      <c r="I40">
+        <v>0.0943959037894737</v>
+      </c>
+      <c r="J40">
+        <v>4.316365296842105</v>
+      </c>
+      <c r="K40">
+        <v>19.11464528033609</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1758,6 +2124,15 @@
       <c r="H41">
         <v>4720.45389080048</v>
       </c>
+      <c r="I41">
+        <v>14.25753490730527</v>
+      </c>
+      <c r="J41">
+        <v>341.5704234147369</v>
+      </c>
+      <c r="K41">
+        <v>993.7797664843116</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1792,6 +2167,15 @@
       <c r="H42">
         <v>100.52829836309</v>
       </c>
+      <c r="I42">
+        <v>0.1888151355789474</v>
+      </c>
+      <c r="J42">
+        <v>6.09950347368421</v>
+      </c>
+      <c r="K42">
+        <v>21.16385228696632</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1826,6 +2210,15 @@
       <c r="H43">
         <v>3127.62896195054</v>
       </c>
+      <c r="I43">
+        <v>11.20361781107368</v>
+      </c>
+      <c r="J43">
+        <v>237.6274601705264</v>
+      </c>
+      <c r="K43">
+        <v>658.4482025159032</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1860,6 +2253,15 @@
       <c r="H44">
         <v>2907.24176007509</v>
       </c>
+      <c r="I44">
+        <v>13.51410746023158</v>
+      </c>
+      <c r="J44">
+        <v>248.0874200357895</v>
+      </c>
+      <c r="K44">
+        <v>612.0508968579137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1894,6 +2296,15 @@
       <c r="H45">
         <v>265.037250190973</v>
       </c>
+      <c r="I45">
+        <v>0.5037157278526316</v>
+      </c>
+      <c r="J45">
+        <v>15.99710743789474</v>
+      </c>
+      <c r="K45">
+        <v>55.79731582967852</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1928,6 +2339,15 @@
       <c r="H46">
         <v>2533.31263515353</v>
       </c>
+      <c r="I46">
+        <v>12.12277348534737</v>
+      </c>
+      <c r="J46">
+        <v>220.8480723789474</v>
+      </c>
+      <c r="K46">
+        <v>533.3289758217959</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1962,6 +2382,15 @@
       <c r="H47">
         <v>1464.46751010418</v>
       </c>
+      <c r="I47">
+        <v>9.055624116273684</v>
+      </c>
+      <c r="J47">
+        <v>152.8199717115789</v>
+      </c>
+      <c r="K47">
+        <v>308.3089494956169</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1996,6 +2425,15 @@
       <c r="H48">
         <v>5341.57039743662</v>
       </c>
+      <c r="I48">
+        <v>30.29351157722105</v>
+      </c>
+      <c r="J48">
+        <v>491.3103162021054</v>
+      </c>
+      <c r="K48">
+        <v>1124.541136302446</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2030,6 +2468,15 @@
       <c r="H49">
         <v>4715.7360675782</v>
       </c>
+      <c r="I49">
+        <v>20.37434490126316</v>
+      </c>
+      <c r="J49">
+        <v>401.3414785557894</v>
+      </c>
+      <c r="K49">
+        <v>992.786540542779</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2064,6 +2511,15 @@
       <c r="H50">
         <v>497.00852894783</v>
       </c>
+      <c r="I50">
+        <v>4.82348638168421</v>
+      </c>
+      <c r="J50">
+        <v>63.76337402736842</v>
+      </c>
+      <c r="K50">
+        <v>104.6333745153326</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2098,6 +2554,15 @@
       <c r="H51">
         <v>2883.35612747073</v>
       </c>
+      <c r="I51">
+        <v>7.742804067894737</v>
+      </c>
+      <c r="J51">
+        <v>182.6601630294737</v>
+      </c>
+      <c r="K51">
+        <v>607.0223426254169</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2132,6 +2597,15 @@
       <c r="H52">
         <v>1320.29184257984</v>
       </c>
+      <c r="I52">
+        <v>8.635327050947369</v>
+      </c>
+      <c r="J52">
+        <v>135.1595720842105</v>
+      </c>
+      <c r="K52">
+        <v>277.9561773852295</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2166,6 +2640,15 @@
       <c r="H53">
         <v>737.95461127162</v>
       </c>
+      <c r="I53">
+        <v>2.513687818610527</v>
+      </c>
+      <c r="J53">
+        <v>58.20957232000001</v>
+      </c>
+      <c r="K53">
+        <v>155.3588655308674</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2200,6 +2683,15 @@
       <c r="H54">
         <v>93.468857884407</v>
       </c>
+      <c r="I54">
+        <v>0.2530292231578947</v>
+      </c>
+      <c r="J54">
+        <v>7.16639985263158</v>
+      </c>
+      <c r="K54">
+        <v>19.6776542914541</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2234,6 +2726,15 @@
       <c r="H55">
         <v>2659.6609596014</v>
       </c>
+      <c r="I55">
+        <v>8.274742979347369</v>
+      </c>
+      <c r="J55">
+        <v>197.4098309536842</v>
+      </c>
+      <c r="K55">
+        <v>559.928623073979</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2268,6 +2769,15 @@
       <c r="H56">
         <v>1498.83367209136</v>
       </c>
+      <c r="I56">
+        <v>8.038019140547368</v>
+      </c>
+      <c r="J56">
+        <v>121.8251180842105</v>
+      </c>
+      <c r="K56">
+        <v>315.5439309666021</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2302,6 +2812,15 @@
       <c r="H57">
         <v>85.1035608053207</v>
       </c>
+      <c r="I57">
+        <v>0.2404416813052632</v>
+      </c>
+      <c r="J57">
+        <v>6.165991376842105</v>
+      </c>
+      <c r="K57">
+        <v>17.91653911690962</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2336,6 +2855,15 @@
       <c r="H58">
         <v>2043.51015153527</v>
       </c>
+      <c r="I58">
+        <v>7.929277931410527</v>
+      </c>
+      <c r="J58">
+        <v>155.56640052</v>
+      </c>
+      <c r="K58">
+        <v>430.2126634811095</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2370,6 +2898,15 @@
       <c r="H59">
         <v>1757.07621058822</v>
       </c>
+      <c r="I59">
+        <v>9.757019166842106</v>
+      </c>
+      <c r="J59">
+        <v>156.1926092168421</v>
+      </c>
+      <c r="K59">
+        <v>369.9107811764674</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2404,6 +2941,15 @@
       <c r="H60">
         <v>777.641296386719</v>
       </c>
+      <c r="I60">
+        <v>3.936741540842105</v>
+      </c>
+      <c r="J60">
+        <v>70.87160134736843</v>
+      </c>
+      <c r="K60">
+        <v>163.7139571340461</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2438,6 +2984,15 @@
       <c r="H61">
         <v>189.457931756973</v>
       </c>
+      <c r="I61">
+        <v>0.7133730454736842</v>
+      </c>
+      <c r="J61">
+        <v>14.29178170526316</v>
+      </c>
+      <c r="K61">
+        <v>39.88588036988906</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2472,6 +3027,15 @@
       <c r="H62">
         <v>726.454589366913</v>
       </c>
+      <c r="I62">
+        <v>1.41964876391579</v>
+      </c>
+      <c r="J62">
+        <v>43.40385137894737</v>
+      </c>
+      <c r="K62">
+        <v>152.9378082877712</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2506,6 +3070,15 @@
       <c r="H63">
         <v>129.4337053895</v>
       </c>
+      <c r="I63">
+        <v>0.1057637154105263</v>
+      </c>
+      <c r="J63">
+        <v>5.490039389473685</v>
+      </c>
+      <c r="K63">
+        <v>27.24920113463158</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2540,6 +3113,15 @@
       <c r="H64">
         <v>172.813111960888</v>
       </c>
+      <c r="I64">
+        <v>0.8872403569052632</v>
+      </c>
+      <c r="J64">
+        <v>14.33355017684211</v>
+      </c>
+      <c r="K64">
+        <v>36.38170778123958</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2574,6 +3156,15 @@
       <c r="H65">
         <v>6647.77750423551</v>
       </c>
+      <c r="I65">
+        <v>21.1900275507579</v>
+      </c>
+      <c r="J65">
+        <v>501.8937786757895</v>
+      </c>
+      <c r="K65">
+        <v>1399.532106154844</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2608,6 +3199,15 @@
       <c r="H66">
         <v>704.042362749577</v>
       </c>
+      <c r="I66">
+        <v>1.742178649621053</v>
+      </c>
+      <c r="J66">
+        <v>47.05859093263158</v>
+      </c>
+      <c r="K66">
+        <v>148.2194447893846</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2642,6 +3242,15 @@
       <c r="H67">
         <v>2457.53724086285</v>
       </c>
+      <c r="I67">
+        <v>4.349893612063158</v>
+      </c>
+      <c r="J67">
+        <v>128.4074496484211</v>
+      </c>
+      <c r="K67">
+        <v>517.3762612342842</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2676,6 +3285,15 @@
       <c r="H68">
         <v>437.724057137966</v>
       </c>
+      <c r="I68">
+        <v>0.8005415714947368</v>
+      </c>
+      <c r="J68">
+        <v>27.47606235789474</v>
+      </c>
+      <c r="K68">
+        <v>92.15243308167706</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2710,6 +3328,15 @@
       <c r="H69">
         <v>5256.7250957787</v>
       </c>
+      <c r="I69">
+        <v>9.62625407608421</v>
+      </c>
+      <c r="J69">
+        <v>284.2093687284211</v>
+      </c>
+      <c r="K69">
+        <v>1106.678967532358</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2744,6 +3371,15 @@
       <c r="H70">
         <v>1151.78122808039</v>
       </c>
+      <c r="I70">
+        <v>5.695058900863159</v>
+      </c>
+      <c r="J70">
+        <v>99.76306308000001</v>
+      </c>
+      <c r="K70">
+        <v>242.48025854324</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2778,6 +3414,15 @@
       <c r="H71">
         <v>2850.50166559219</v>
       </c>
+      <c r="I71">
+        <v>8.245802120042105</v>
+      </c>
+      <c r="J71">
+        <v>205.6706167494737</v>
+      </c>
+      <c r="K71">
+        <v>600.1056138088821</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2812,6 +3457,15 @@
       <c r="H72">
         <v>3283.62657234073</v>
       </c>
+      <c r="I72">
+        <v>6.809133246463158</v>
+      </c>
+      <c r="J72">
+        <v>200.0881587852632</v>
+      </c>
+      <c r="K72">
+        <v>691.2898047033117</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2846,6 +3500,15 @@
       <c r="H73">
         <v>73.30098748207089</v>
       </c>
+      <c r="I73">
+        <v>0.03644744568421052</v>
+      </c>
+      <c r="J73">
+        <v>2.507745473684211</v>
+      </c>
+      <c r="K73">
+        <v>15.43178683833072</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2880,6 +3543,15 @@
       <c r="H74">
         <v>679.490454182029</v>
       </c>
+      <c r="I74">
+        <v>2.098398883305263</v>
+      </c>
+      <c r="J74">
+        <v>48.90367909473685</v>
+      </c>
+      <c r="K74">
+        <v>143.0506219330588</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2914,6 +3586,15 @@
       <c r="H75">
         <v>1885.02252429724</v>
       </c>
+      <c r="I75">
+        <v>6.999835473494738</v>
+      </c>
+      <c r="J75">
+        <v>148.8189250178947</v>
+      </c>
+      <c r="K75">
+        <v>396.8468472204716</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2948,6 +3629,15 @@
       <c r="H76">
         <v>561.9587989300491</v>
       </c>
+      <c r="I76">
+        <v>0.8649201792421053</v>
+      </c>
+      <c r="J76">
+        <v>30.1573063831579</v>
+      </c>
+      <c r="K76">
+        <v>118.3071155642209</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2982,6 +3672,15 @@
       <c r="H77">
         <v>469.772513896227</v>
       </c>
+      <c r="I77">
+        <v>0.6683261344631578</v>
+      </c>
+      <c r="J77">
+        <v>23.41219891578948</v>
+      </c>
+      <c r="K77">
+        <v>98.89947660973201</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3016,6 +3715,15 @@
       <c r="H78">
         <v>718.094665214419</v>
       </c>
+      <c r="I78">
+        <v>5.014210312610526</v>
+      </c>
+      <c r="J78">
+        <v>81.08222981263158</v>
+      </c>
+      <c r="K78">
+        <v>151.1778242556672</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3050,6 +3758,15 @@
       <c r="H79">
         <v>44.5000551342964</v>
       </c>
+      <c r="I79">
+        <v>0.1670177877894737</v>
+      </c>
+      <c r="J79">
+        <v>3.639772665263158</v>
+      </c>
+      <c r="K79">
+        <v>9.368432659851875</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3084,6 +3801,15 @@
       <c r="H80">
         <v>1230.26506608725</v>
       </c>
+      <c r="I80">
+        <v>3.59248640551579</v>
+      </c>
+      <c r="J80">
+        <v>82.72394422105263</v>
+      </c>
+      <c r="K80">
+        <v>259.0031718078421</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3118,6 +3844,15 @@
       <c r="H81">
         <v>69.8890905380249</v>
       </c>
+      <c r="I81">
+        <v>0.09289377221052632</v>
+      </c>
+      <c r="J81">
+        <v>3.745794610526316</v>
+      </c>
+      <c r="K81">
+        <v>14.71349274484735</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3152,6 +3887,15 @@
       <c r="H82">
         <v>4783.15413713455</v>
       </c>
+      <c r="I82">
+        <v>9.428220093663159</v>
+      </c>
+      <c r="J82">
+        <v>271.3619122042106</v>
+      </c>
+      <c r="K82">
+        <v>1006.979818344116</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3186,6 +3930,15 @@
       <c r="H83">
         <v>62.3581247329712</v>
       </c>
+      <c r="I83">
+        <v>0.05224266751578948</v>
+      </c>
+      <c r="J83">
+        <v>2.6207136</v>
+      </c>
+      <c r="K83">
+        <v>13.12802625957288</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3220,6 +3973,15 @@
       <c r="H84">
         <v>1610.4438637495</v>
       </c>
+      <c r="I84">
+        <v>4.016557388842106</v>
+      </c>
+      <c r="J84">
+        <v>110.9764958</v>
+      </c>
+      <c r="K84">
+        <v>339.0408134209474</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3254,6 +4016,15 @@
       <c r="H85">
         <v>1415.86216974258</v>
       </c>
+      <c r="I85">
+        <v>9.682739168294738</v>
+      </c>
+      <c r="J85">
+        <v>152.0783927684211</v>
+      </c>
+      <c r="K85">
+        <v>298.0762462615958</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3288,6 +4059,15 @@
       <c r="H86">
         <v>7221.39312213659</v>
       </c>
+      <c r="I86">
+        <v>20.99666467593684</v>
+      </c>
+      <c r="J86">
+        <v>471.145275088421</v>
+      </c>
+      <c r="K86">
+        <v>1520.293288870861</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3322,6 +4102,15 @@
       <c r="H87">
         <v>119.80144238472</v>
       </c>
+      <c r="I87">
+        <v>0.2181575654736842</v>
+      </c>
+      <c r="J87">
+        <v>7.293577073684211</v>
+      </c>
+      <c r="K87">
+        <v>25.22135629152</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3356,6 +4145,15 @@
       <c r="H88">
         <v>1871.32342034578</v>
       </c>
+      <c r="I88">
+        <v>13.85327046677895</v>
+      </c>
+      <c r="J88">
+        <v>188.2852029431579</v>
+      </c>
+      <c r="K88">
+        <v>393.9628253359537</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3390,6 +4188,15 @@
       <c r="H89">
         <v>753.966084957123</v>
       </c>
+      <c r="I89">
+        <v>7.968175117473685</v>
+      </c>
+      <c r="J89">
+        <v>93.93524611578947</v>
+      </c>
+      <c r="K89">
+        <v>158.7297020962364</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3424,6 +4231,15 @@
       <c r="H90">
         <v>232.220117777586</v>
       </c>
+      <c r="I90">
+        <v>0.7193046817473684</v>
+      </c>
+      <c r="J90">
+        <v>17.65671052421053</v>
+      </c>
+      <c r="K90">
+        <v>48.88844584791285</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3458,6 +4274,15 @@
       <c r="H91">
         <v>5980.54628427327</v>
       </c>
+      <c r="I91">
+        <v>13.93364633317895</v>
+      </c>
+      <c r="J91">
+        <v>374.1862120778948</v>
+      </c>
+      <c r="K91">
+        <v>1259.062375636478</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3492,6 +4317,15 @@
       <c r="H92">
         <v>321.63929527998</v>
       </c>
+      <c r="I92">
+        <v>1.134766763157895</v>
+      </c>
+      <c r="J92">
+        <v>26.06135654526316</v>
+      </c>
+      <c r="K92">
+        <v>67.71353584841684</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3526,6 +4360,15 @@
       <c r="H93">
         <v>591.678754836321</v>
       </c>
+      <c r="I93">
+        <v>1.308078343768421</v>
+      </c>
+      <c r="J93">
+        <v>36.11916761473685</v>
+      </c>
+      <c r="K93">
+        <v>124.5639483865939</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3560,6 +4403,15 @@
       <c r="H94">
         <v>98.576893299818</v>
       </c>
+      <c r="I94">
+        <v>0.09020908587368422</v>
+      </c>
+      <c r="J94">
+        <v>4.1051394</v>
+      </c>
+      <c r="K94">
+        <v>20.75303016838274</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3594,6 +4446,15 @@
       <c r="H95">
         <v>1103.26559726894</v>
       </c>
+      <c r="I95">
+        <v>5.264475506863159</v>
+      </c>
+      <c r="J95">
+        <v>99.17801966947368</v>
+      </c>
+      <c r="K95">
+        <v>232.2664415303032</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3628,6 +4489,15 @@
       <c r="H96">
         <v>8153.40737622976</v>
       </c>
+      <c r="I96">
+        <v>30.36282555263158</v>
+      </c>
+      <c r="J96">
+        <v>621.6411191494738</v>
+      </c>
+      <c r="K96">
+        <v>1716.506816048371</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3662,6 +4532,15 @@
       <c r="H97">
         <v>3501.78131073713</v>
       </c>
+      <c r="I97">
+        <v>12.88253045031579</v>
+      </c>
+      <c r="J97">
+        <v>267.5948738252632</v>
+      </c>
+      <c r="K97">
+        <v>737.2171180499221</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3696,6 +4575,15 @@
       <c r="H98">
         <v>3015.20736896992</v>
       </c>
+      <c r="I98">
+        <v>14.96619859282105</v>
+      </c>
+      <c r="J98">
+        <v>261.8041352084211</v>
+      </c>
+      <c r="K98">
+        <v>634.7804987305095</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3730,6 +4618,15 @@
       <c r="H99">
         <v>3250.74577653408</v>
       </c>
+      <c r="I99">
+        <v>12.02450421141053</v>
+      </c>
+      <c r="J99">
+        <v>241.7294593726316</v>
+      </c>
+      <c r="K99">
+        <v>684.3675319019117</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3764,6 +4661,15 @@
       <c r="H100">
         <v>878.908962816</v>
       </c>
+      <c r="I100">
+        <v>4.626789128736842</v>
+      </c>
+      <c r="J100">
+        <v>87.34220524842105</v>
+      </c>
+      <c r="K100">
+        <v>185.033465856</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3798,6 +4704,15 @@
       <c r="H101">
         <v>632.965787187219</v>
       </c>
+      <c r="I101">
+        <v>2.147408123642105</v>
+      </c>
+      <c r="J101">
+        <v>51.51578067368421</v>
+      </c>
+      <c r="K101">
+        <v>133.2559551973093</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3832,6 +4747,15 @@
       <c r="H102">
         <v>119.508729994297</v>
       </c>
+      <c r="I102">
+        <v>0.2060661842105263</v>
+      </c>
+      <c r="J102">
+        <v>6.485216147368422</v>
+      </c>
+      <c r="K102">
+        <v>25.15973263037832</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3866,6 +4790,15 @@
       <c r="H103">
         <v>251.476857274771</v>
       </c>
+      <c r="I103">
+        <v>0.4711741945263158</v>
+      </c>
+      <c r="J103">
+        <v>14.77503666105263</v>
+      </c>
+      <c r="K103">
+        <v>52.94249626837284</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3900,6 +4833,15 @@
       <c r="H104">
         <v>7072.52802658081</v>
       </c>
+      <c r="I104">
+        <v>15.47260104410526</v>
+      </c>
+      <c r="J104">
+        <v>418.9335160021053</v>
+      </c>
+      <c r="K104">
+        <v>1488.953268753855</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3934,6 +4876,15 @@
       <c r="H105">
         <v>514.384766757488</v>
       </c>
+      <c r="I105">
+        <v>0.9249343302947369</v>
+      </c>
+      <c r="J105">
+        <v>30.66852345052632</v>
+      </c>
+      <c r="K105">
+        <v>108.2915298436817</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3968,6 +4919,15 @@
       <c r="H106">
         <v>4388.75413790345</v>
       </c>
+      <c r="I106">
+        <v>8.7751457692</v>
+      </c>
+      <c r="J106">
+        <v>258.9721726147369</v>
+      </c>
+      <c r="K106">
+        <v>923.9482395586211</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4002,6 +4962,15 @@
       <c r="H107">
         <v>943.515495836735</v>
       </c>
+      <c r="I107">
+        <v>3.76348712631579</v>
+      </c>
+      <c r="J107">
+        <v>76.06409038736842</v>
+      </c>
+      <c r="K107">
+        <v>198.6348412287863</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4036,6 +5005,15 @@
       <c r="H108">
         <v>420.570912539959</v>
       </c>
+      <c r="I108">
+        <v>0.9896879685684211</v>
+      </c>
+      <c r="J108">
+        <v>28.79099055157895</v>
+      </c>
+      <c r="K108">
+        <v>88.54124474525453</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4070,6 +5048,15 @@
       <c r="H109">
         <v>3494.52579241991</v>
       </c>
+      <c r="I109">
+        <v>4.592793083536842</v>
+      </c>
+      <c r="J109">
+        <v>171.5568738568421</v>
+      </c>
+      <c r="K109">
+        <v>735.6896405094548</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4103,6 +5090,15 @@
       </c>
       <c r="H110">
         <v>321.864012271166</v>
+      </c>
+      <c r="I110">
+        <v>0.9233930372631579</v>
+      </c>
+      <c r="J110">
+        <v>22.14693414105263</v>
+      </c>
+      <c r="K110">
+        <v>67.76084468866654</v>
       </c>
     </row>
   </sheetData>

--- a/data/safira_cana_planta.xlsx
+++ b/data/safira_cana_planta.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,22 +395,52 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>comprimento</t>
+          <t>comprimento_total</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>comprimento_05</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_m2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>volume_cm3_dm3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>area_cm2_dm3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>comprimento_cm_dm3</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_total_cm_dm3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_05_cm_dm3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_2_cm_dm3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_m2_cm_dm3</t>
         </is>
       </c>
     </row>
@@ -448,13 +478,31 @@
         <v>1267.04589706659</v>
       </c>
       <c r="I2">
+        <v>438.990790843964</v>
+      </c>
+      <c r="J2">
+        <v>279.366356790066</v>
+      </c>
+      <c r="K2">
+        <v>548.688749432564</v>
+      </c>
+      <c r="L2">
         <v>3.351166849263158</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>90.74026724210526</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>266.7465046455979</v>
+      </c>
+      <c r="O2">
+        <v>92.41911386188717</v>
+      </c>
+      <c r="P2">
+        <v>58.81396985054021</v>
+      </c>
+      <c r="Q2">
+        <v>115.5134209331714</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +539,31 @@
         <v>829.866975456476</v>
       </c>
       <c r="I3">
+        <v>266.983262389898</v>
+      </c>
+      <c r="J3">
+        <v>116.819712281227</v>
+      </c>
+      <c r="K3">
+        <v>446.064000785351</v>
+      </c>
+      <c r="L3">
         <v>4.693151396147369</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>82.06963163368422</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>174.7088369382055</v>
+      </c>
+      <c r="O3">
+        <v>56.20700260839958</v>
+      </c>
+      <c r="P3">
+        <v>24.59362363815306</v>
+      </c>
+      <c r="Q3">
+        <v>93.90821069165286</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +600,31 @@
         <v>239.640870302916</v>
       </c>
       <c r="I4">
+        <v>42.1649248749018</v>
+      </c>
+      <c r="J4">
+        <v>24.4521226286888</v>
+      </c>
+      <c r="K4">
+        <v>173.023822799325</v>
+      </c>
+      <c r="L4">
         <v>1.562262044210526</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>27.821574</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>50.45070953745601</v>
+      </c>
+      <c r="O4">
+        <v>8.876826289453012</v>
+      </c>
+      <c r="P4">
+        <v>5.147815290250274</v>
+      </c>
+      <c r="Q4">
+        <v>36.42606795775263</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +661,31 @@
         <v>2936.63346922398</v>
       </c>
       <c r="I5">
+        <v>1377.41772335768</v>
+      </c>
+      <c r="J5">
+        <v>678.486911773682</v>
+      </c>
+      <c r="K5">
+        <v>880.728834092617</v>
+      </c>
+      <c r="L5">
         <v>5.752896305810527</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>173.221967911579</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>618.2386250997853</v>
+      </c>
+      <c r="O5">
+        <v>289.9826786016168</v>
+      </c>
+      <c r="P5">
+        <v>142.8393498470909</v>
+      </c>
+      <c r="Q5">
+        <v>185.4165966510773</v>
       </c>
     </row>
     <row r="6">
@@ -620,13 +722,31 @@
         <v>3571.11430312693</v>
       </c>
       <c r="I6">
+        <v>1230.4295578897</v>
+      </c>
+      <c r="J6">
+        <v>756.79189568758</v>
+      </c>
+      <c r="K6">
+        <v>1583.89284954965</v>
+      </c>
+      <c r="L6">
         <v>11.67503847427368</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>271.6701719621053</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>751.8135375004063</v>
+      </c>
+      <c r="O6">
+        <v>259.0378016609895</v>
+      </c>
+      <c r="P6">
+        <v>159.3246096184379</v>
+      </c>
+      <c r="Q6">
+        <v>333.451126220979</v>
       </c>
     </row>
     <row r="7">
@@ -663,13 +783,31 @@
         <v>1357.16249629855</v>
       </c>
       <c r="I7">
+        <v>610.385870575905</v>
+      </c>
+      <c r="J7">
+        <v>266.663721770048</v>
+      </c>
+      <c r="K7">
+        <v>480.112903952599</v>
+      </c>
+      <c r="L7">
         <v>6.607306417263158</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>105.9854692442105</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>285.7184202733789</v>
+      </c>
+      <c r="O7">
+        <v>128.5022885422958</v>
+      </c>
+      <c r="P7">
+        <v>56.13973089895748</v>
+      </c>
+      <c r="Q7">
+        <v>101.0764008321261</v>
       </c>
     </row>
     <row r="8">
@@ -706,13 +844,31 @@
         <v>642.693928077817</v>
       </c>
       <c r="I8">
+        <v>217.09723675251</v>
+      </c>
+      <c r="J8">
+        <v>143.185329169035</v>
+      </c>
+      <c r="K8">
+        <v>282.411362156272</v>
+      </c>
+      <c r="L8">
         <v>1.851242374568421</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>47.61016046736842</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>135.3039848584878</v>
+      </c>
+      <c r="O8">
+        <v>45.70468142158106</v>
+      </c>
+      <c r="P8">
+        <v>30.14427982506</v>
+      </c>
+      <c r="Q8">
+        <v>59.45502361184674</v>
       </c>
     </row>
     <row r="9">
@@ -749,13 +905,31 @@
         <v>47.7842741012573</v>
       </c>
       <c r="I9">
+        <v>18.4404537677765</v>
+      </c>
+      <c r="J9">
+        <v>12.4347078800201</v>
+      </c>
+      <c r="K9">
+        <v>16.9091124534607</v>
+      </c>
+      <c r="L9">
         <v>0.0772554332631579</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>2.772195305263158</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>10.05984717921207</v>
+      </c>
+      <c r="O9">
+        <v>3.882200793216105</v>
+      </c>
+      <c r="P9">
+        <v>2.617833237898969</v>
+      </c>
+      <c r="Q9">
+        <v>3.55981314809699</v>
       </c>
     </row>
     <row r="10">
@@ -792,13 +966,31 @@
         <v>3911.74443353713</v>
       </c>
       <c r="I10">
+        <v>2048.16978061199</v>
+      </c>
+      <c r="J10">
+        <v>734.906778454781</v>
+      </c>
+      <c r="K10">
+        <v>1128.66787447035</v>
+      </c>
+      <c r="L10">
         <v>8.512024420568421</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>232.7372274442105</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>823.5251439025537</v>
+      </c>
+      <c r="O10">
+        <v>431.1936380235769</v>
+      </c>
+      <c r="P10">
+        <v>154.717216516796</v>
+      </c>
+      <c r="Q10">
+        <v>237.6142893621789</v>
       </c>
     </row>
     <row r="11">
@@ -835,13 +1027,31 @@
         <v>1396.59297868609</v>
       </c>
       <c r="I11">
+        <v>642.3856319189071</v>
+      </c>
+      <c r="J11">
+        <v>362.799812048674</v>
+      </c>
+      <c r="K11">
+        <v>391.407534718513</v>
+      </c>
+      <c r="L11">
         <v>2.250405597810526</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>77.66196274105265</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>294.0195744602295</v>
+      </c>
+      <c r="O11">
+        <v>135.2390804039804</v>
+      </c>
+      <c r="P11">
+        <v>76.37890779972085</v>
+      </c>
+      <c r="Q11">
+        <v>82.40158625652906</v>
       </c>
     </row>
     <row r="12">
@@ -878,13 +1088,31 @@
         <v>363.10868562758</v>
       </c>
       <c r="I12">
+        <v>65.0602893829346</v>
+      </c>
+      <c r="J12">
+        <v>45.9838141202927</v>
+      </c>
+      <c r="K12">
+        <v>252.064582124352</v>
+      </c>
+      <c r="L12">
         <v>2.783947938947369</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>44.86441652631579</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>76.44393381633263</v>
+      </c>
+      <c r="O12">
+        <v>13.69690302798623</v>
+      </c>
+      <c r="P12">
+        <v>9.680802972693201</v>
+      </c>
+      <c r="Q12">
+        <v>53.06622781565306</v>
       </c>
     </row>
     <row r="13">
@@ -921,13 +1149,31 @@
         <v>1975.37827983499</v>
       </c>
       <c r="I13">
+        <v>821.189666181803</v>
+      </c>
+      <c r="J13">
+        <v>450.039033800364</v>
+      </c>
+      <c r="K13">
+        <v>704.149579852819</v>
+      </c>
+      <c r="L13">
         <v>3.992151330736843</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>122.4105693473684</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>415.8691115442085</v>
+      </c>
+      <c r="O13">
+        <v>172.8820349856428</v>
+      </c>
+      <c r="P13">
+        <v>94.74505974744506</v>
+      </c>
+      <c r="Q13">
+        <v>148.2420168111198</v>
       </c>
     </row>
     <row r="14">
@@ -964,13 +1210,31 @@
         <v>1663.93286052346</v>
       </c>
       <c r="I14">
+        <v>724.36644500494</v>
+      </c>
+      <c r="J14">
+        <v>367.424065887928</v>
+      </c>
+      <c r="K14">
+        <v>572.142349630594</v>
+      </c>
+      <c r="L14">
         <v>3.806496220042106</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>105.0628006357895</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>350.3016548470442</v>
+      </c>
+      <c r="O14">
+        <v>152.4981989484084</v>
+      </c>
+      <c r="P14">
+        <v>77.35243492377433</v>
+      </c>
+      <c r="Q14">
+        <v>120.4510209748619</v>
       </c>
     </row>
     <row r="15">
@@ -1007,13 +1271,31 @@
         <v>2845.98495420814</v>
       </c>
       <c r="I15">
+        <v>1265.38937851787</v>
+      </c>
+      <c r="J15">
+        <v>496.593323171139</v>
+      </c>
+      <c r="K15">
+        <v>1084.00225251913</v>
+      </c>
+      <c r="L15">
         <v>9.330511474842107</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>205.9186638736842</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>599.1547272017137</v>
+      </c>
+      <c r="O15">
+        <v>266.397763898499</v>
+      </c>
+      <c r="P15">
+        <v>104.5459627728714</v>
+      </c>
+      <c r="Q15">
+        <v>228.2110005303432</v>
       </c>
     </row>
     <row r="16">
@@ -1050,13 +1332,31 @@
         <v>1093.89645287395</v>
       </c>
       <c r="I16">
+        <v>335.382203817368</v>
+      </c>
+      <c r="J16">
+        <v>195.846238136292</v>
+      </c>
+      <c r="K16">
+        <v>562.668010920286</v>
+      </c>
+      <c r="L16">
         <v>4.929034110736843</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>98.13871478105264</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>230.2939900787263</v>
+      </c>
+      <c r="O16">
+        <v>70.60677975102485</v>
+      </c>
+      <c r="P16">
+        <v>41.23078697606147</v>
+      </c>
+      <c r="Q16">
+        <v>118.4564233516392</v>
       </c>
     </row>
     <row r="17">
@@ -1093,13 +1393,31 @@
         <v>216.102864027023</v>
       </c>
       <c r="I17">
+        <v>69.5564448833466</v>
+      </c>
+      <c r="J17">
+        <v>78.39666390419011</v>
+      </c>
+      <c r="K17">
+        <v>68.14975523948669</v>
+      </c>
+      <c r="L17">
         <v>0.4750815332631579</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>13.91260854736842</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>45.49533979516274</v>
+      </c>
+      <c r="O17">
+        <v>14.64346208070455</v>
+      </c>
+      <c r="P17">
+        <v>16.50456082193476</v>
+      </c>
+      <c r="Q17">
+        <v>14.34731689252352</v>
       </c>
     </row>
     <row r="18">
@@ -1136,13 +1454,31 @@
         <v>293.948076710105</v>
       </c>
       <c r="I18">
+        <v>222.650570631027</v>
+      </c>
+      <c r="J18">
+        <v>57.2901894897223</v>
+      </c>
+      <c r="K18">
+        <v>14.0073165893555</v>
+      </c>
+      <c r="L18">
         <v>0.1721581297052632</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>10.4894115031579</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>61.88380562318</v>
+      </c>
+      <c r="O18">
+        <v>46.8738043433741</v>
+      </c>
+      <c r="P18">
+        <v>12.06109252415206</v>
+      </c>
+      <c r="Q18">
+        <v>2.94890875565379</v>
       </c>
     </row>
     <row r="19">
@@ -1179,13 +1515,31 @@
         <v>1939.47662207484</v>
       </c>
       <c r="I19">
+        <v>982.489916324615</v>
+      </c>
+      <c r="J19">
+        <v>497.775120615959</v>
+      </c>
+      <c r="K19">
+        <v>459.211585134268</v>
+      </c>
+      <c r="L19">
         <v>2.778527349705263</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>100.7358611452632</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>408.3108678052295</v>
+      </c>
+      <c r="O19">
+        <v>206.8399823841295</v>
+      </c>
+      <c r="P19">
+        <v>104.7947622349387</v>
+      </c>
+      <c r="Q19">
+        <v>96.67612318616168</v>
       </c>
     </row>
     <row r="20">
@@ -1222,13 +1576,31 @@
         <v>637.549638926983</v>
       </c>
       <c r="I20">
+        <v>230.798669338226</v>
+      </c>
+      <c r="J20">
+        <v>90.62250816822051</v>
+      </c>
+      <c r="K20">
+        <v>316.128461420536</v>
+      </c>
+      <c r="L20">
         <v>3.979530952842106</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>63.6915404</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>134.2209766162069</v>
+      </c>
+      <c r="O20">
+        <v>48.58919354488969</v>
+      </c>
+      <c r="P20">
+        <v>19.07842277225695</v>
+      </c>
+      <c r="Q20">
+        <v>66.55336029906022</v>
       </c>
     </row>
     <row r="21">
@@ -1265,13 +1637,31 @@
         <v>580.075658231974</v>
       </c>
       <c r="I21">
+        <v>207.307688236237</v>
+      </c>
+      <c r="J21">
+        <v>105.254489988089</v>
+      </c>
+      <c r="K21">
+        <v>267.513480007648</v>
+      </c>
+      <c r="L21">
         <v>3.136567203557895</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>53.16588870736842</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>122.1211912067314</v>
+      </c>
+      <c r="O21">
+        <v>43.64372383920779</v>
+      </c>
+      <c r="P21">
+        <v>22.15883999749243</v>
+      </c>
+      <c r="Q21">
+        <v>56.31862737003116</v>
       </c>
     </row>
     <row r="22">
@@ -1308,13 +1698,31 @@
         <v>1438.98992925882</v>
       </c>
       <c r="I22">
+        <v>355.057896375656</v>
+      </c>
+      <c r="J22">
+        <v>228.364341020584</v>
+      </c>
+      <c r="K22">
+        <v>855.5676918625831</v>
+      </c>
+      <c r="L22">
         <v>41.97080872463158</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>813.5353737621053</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>302.9452482650148</v>
+      </c>
+      <c r="O22">
+        <v>74.74903081592758</v>
+      </c>
+      <c r="P22">
+        <v>48.07670337275452</v>
+      </c>
+      <c r="Q22">
+        <v>180.1195140763333</v>
       </c>
     </row>
     <row r="23">
@@ -1351,13 +1759,31 @@
         <v>3080.67969334126</v>
       </c>
       <c r="I23">
+        <v>1327.00023940206</v>
+      </c>
+      <c r="J23">
+        <v>542.977660030127</v>
+      </c>
+      <c r="K23">
+        <v>1210.70179390907</v>
+      </c>
+      <c r="L23">
         <v>8.880253050399999</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>214.4468619978947</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>648.5641459665811</v>
+      </c>
+      <c r="O23">
+        <v>279.3684714530652</v>
+      </c>
+      <c r="P23">
+        <v>114.311086322132</v>
+      </c>
+      <c r="Q23">
+        <v>254.8845881913831</v>
       </c>
     </row>
     <row r="24">
@@ -1394,13 +1820,31 @@
         <v>156.956790670753</v>
       </c>
       <c r="I24">
+        <v>32.2858683764935</v>
+      </c>
+      <c r="J24">
+        <v>42.4439717531204</v>
+      </c>
+      <c r="K24">
+        <v>82.22695054113861</v>
+      </c>
+      <c r="L24">
         <v>0.4057329838947369</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>11.71143556631579</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>33.04353487805327</v>
+      </c>
+      <c r="O24">
+        <v>6.797024921367052</v>
+      </c>
+      <c r="P24">
+        <v>8.935573000656927</v>
+      </c>
+      <c r="Q24">
+        <v>17.31093695602918</v>
       </c>
     </row>
     <row r="25">
@@ -1437,13 +1881,31 @@
         <v>2172.78481376171</v>
       </c>
       <c r="I25">
+        <v>798.789791584015</v>
+      </c>
+      <c r="J25">
+        <v>425.647846251726</v>
+      </c>
+      <c r="K25">
+        <v>948.34717592597</v>
+      </c>
+      <c r="L25">
         <v>6.629473574336842</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>160.1976830568421</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>457.4283818445706</v>
+      </c>
+      <c r="O25">
+        <v>168.1662719124242</v>
+      </c>
+      <c r="P25">
+        <v>89.61007289510022</v>
+      </c>
+      <c r="Q25">
+        <v>199.6520370370463</v>
       </c>
     </row>
     <row r="26">
@@ -1480,13 +1942,31 @@
         <v>2043.97689397633</v>
       </c>
       <c r="I26">
+        <v>916.997578322887</v>
+      </c>
+      <c r="J26">
+        <v>447.546676903963</v>
+      </c>
+      <c r="K26">
+        <v>679.43263874948</v>
+      </c>
+      <c r="L26">
         <v>4.940999035810527</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>131.2179087852632</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>430.3109250476484</v>
+      </c>
+      <c r="O26">
+        <v>193.0521217521867</v>
+      </c>
+      <c r="P26">
+        <v>94.22035303241326</v>
+      </c>
+      <c r="Q26">
+        <v>143.0384502630484</v>
       </c>
     </row>
     <row r="27">
@@ -1523,13 +2003,31 @@
         <v>60.6965613663197</v>
       </c>
       <c r="I27">
+        <v>34.7268244028091</v>
+      </c>
+      <c r="J27">
+        <v>14.1208710968494</v>
+      </c>
+      <c r="K27">
+        <v>11.8488658666611</v>
+      </c>
+      <c r="L27">
         <v>0.0820815800631579</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>3.014797389473685</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>12.77822344554099</v>
+      </c>
+      <c r="O27">
+        <v>7.31091040059139</v>
+      </c>
+      <c r="P27">
+        <v>2.972814967757769</v>
+      </c>
+      <c r="Q27">
+        <v>2.494498077191811</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +2064,31 @@
         <v>4131.62300653756</v>
       </c>
       <c r="I28">
+        <v>1732.42770379782</v>
+      </c>
+      <c r="J28">
+        <v>839.008601605892</v>
+      </c>
+      <c r="K28">
+        <v>1560.18670113385</v>
+      </c>
+      <c r="L28">
         <v>13.6762864016</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>296.9892338905264</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>869.8153697973811</v>
+      </c>
+      <c r="O28">
+        <v>364.7216218521726</v>
+      </c>
+      <c r="P28">
+        <v>176.6333898117667</v>
+      </c>
+      <c r="Q28">
+        <v>328.4603581334421</v>
       </c>
     </row>
     <row r="29">
@@ -1609,13 +2125,31 @@
         <v>202.082407623529</v>
       </c>
       <c r="I29">
+        <v>43.3554206490517</v>
+      </c>
+      <c r="J29">
+        <v>54.7286356985569</v>
+      </c>
+      <c r="K29">
+        <v>103.998351275921</v>
+      </c>
+      <c r="L29">
         <v>0.5804620310947368</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>15.69426858947369</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>42.54366476284822</v>
+      </c>
+      <c r="O29">
+        <v>9.127456978747727</v>
+      </c>
+      <c r="P29">
+        <v>11.52181804180145</v>
+      </c>
+      <c r="Q29">
+        <v>21.89438974229916</v>
       </c>
     </row>
     <row r="30">
@@ -1652,13 +2186,31 @@
         <v>587.74931076169</v>
       </c>
       <c r="I30">
+        <v>253.985223412514</v>
+      </c>
+      <c r="J30">
+        <v>126.31008823216</v>
+      </c>
+      <c r="K30">
+        <v>207.453999117017</v>
+      </c>
+      <c r="L30">
         <v>1.249397937789474</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>36.89789842526316</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>123.7366970024611</v>
+      </c>
+      <c r="O30">
+        <v>53.47057335000295</v>
+      </c>
+      <c r="P30">
+        <v>26.59159752256</v>
+      </c>
+      <c r="Q30">
+        <v>43.67452612989832</v>
       </c>
     </row>
     <row r="31">
@@ -1695,13 +2247,31 @@
         <v>5285.25400102139</v>
       </c>
       <c r="I31">
+        <v>2396.3827688098</v>
+      </c>
+      <c r="J31">
+        <v>958.96780949831</v>
+      </c>
+      <c r="K31">
+        <v>1929.90342271328</v>
+      </c>
+      <c r="L31">
         <v>17.68310916126316</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>374.0538568463158</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>1112.685052846608</v>
+      </c>
+      <c r="O31">
+        <v>504.5016355389053</v>
+      </c>
+      <c r="P31">
+        <v>201.8879598943811</v>
+      </c>
+      <c r="Q31">
+        <v>406.2954574133221</v>
       </c>
     </row>
     <row r="32">
@@ -1738,13 +2308,31 @@
         <v>2049.07706314325</v>
       </c>
       <c r="I32">
+        <v>896.048880934715</v>
+      </c>
+      <c r="J32">
+        <v>366.764063864946</v>
+      </c>
+      <c r="K32">
+        <v>786.264118343592</v>
+      </c>
+      <c r="L32">
         <v>5.924979701410527</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>141.4486845915789</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>431.3846448722632</v>
+      </c>
+      <c r="O32">
+        <v>188.6418696704663</v>
+      </c>
+      <c r="P32">
+        <v>77.21348712946234</v>
+      </c>
+      <c r="Q32">
+        <v>165.5292880723352</v>
       </c>
     </row>
     <row r="33">
@@ -1781,13 +2369,31 @@
         <v>1495.45234002173</v>
       </c>
       <c r="I33">
+        <v>827.547958374023</v>
+      </c>
+      <c r="J33">
+        <v>353.162585765123</v>
+      </c>
+      <c r="K33">
+        <v>314.741795882583</v>
+      </c>
+      <c r="L33">
         <v>1.795074395557895</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>72.64749219789475</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>314.8320715835221</v>
+      </c>
+      <c r="O33">
+        <v>174.2206228155838</v>
+      </c>
+      <c r="P33">
+        <v>74.35001805581538</v>
+      </c>
+      <c r="Q33">
+        <v>66.26143071212275</v>
       </c>
     </row>
     <row r="34">
@@ -1824,13 +2430,31 @@
         <v>1006.59189459682</v>
       </c>
       <c r="I34">
+        <v>286.495140969753</v>
+      </c>
+      <c r="J34">
+        <v>203.334446579218</v>
+      </c>
+      <c r="K34">
+        <v>516.7623070478441</v>
+      </c>
+      <c r="L34">
         <v>5.002326765010526</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>92.29313824210526</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>211.9140830730148</v>
+      </c>
+      <c r="O34">
+        <v>60.314766519948</v>
+      </c>
+      <c r="P34">
+        <v>42.80725191141431</v>
+      </c>
+      <c r="Q34">
+        <v>108.7920646416514</v>
       </c>
     </row>
     <row r="35">
@@ -1867,13 +2491,31 @@
         <v>1123.45822021365</v>
       </c>
       <c r="I35">
+        <v>472.178395450115</v>
+      </c>
+      <c r="J35">
+        <v>339.693982332945</v>
+      </c>
+      <c r="K35">
+        <v>311.585842430592</v>
+      </c>
+      <c r="L35">
         <v>1.689553236168421</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>62.12887537473684</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>236.517520044979</v>
+      </c>
+      <c r="O35">
+        <v>99.4059779894979</v>
+      </c>
+      <c r="P35">
+        <v>71.51452259640948</v>
+      </c>
+      <c r="Q35">
+        <v>65.597019459072</v>
       </c>
     </row>
     <row r="36">
@@ -1910,13 +2552,31 @@
         <v>2774.26303608716</v>
       </c>
       <c r="I36">
+        <v>1085.03693628311</v>
+      </c>
+      <c r="J36">
+        <v>510.946310356259</v>
+      </c>
+      <c r="K36">
+        <v>1178.27978944778</v>
+      </c>
+      <c r="L36">
         <v>7.7714278752</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>195.2661606168421</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>584.0553760183495</v>
+      </c>
+      <c r="O36">
+        <v>228.4288286911811</v>
+      </c>
+      <c r="P36">
+        <v>107.5676442855282</v>
+      </c>
+      <c r="Q36">
+        <v>248.0589030416379</v>
       </c>
     </row>
     <row r="37">
@@ -1953,13 +2613,31 @@
         <v>493.833147168159</v>
       </c>
       <c r="I37">
+        <v>220.369703367352</v>
+      </c>
+      <c r="J37">
+        <v>122.306802734733</v>
+      </c>
+      <c r="K37">
+        <v>151.156641066074</v>
+      </c>
+      <c r="L37">
         <v>1.132436801431579</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>30.74581768842105</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>103.9648730880335</v>
+      </c>
+      <c r="O37">
+        <v>46.3936217615478</v>
+      </c>
+      <c r="P37">
+        <v>25.74880057573327</v>
+      </c>
+      <c r="Q37">
+        <v>31.82245075075242</v>
       </c>
     </row>
     <row r="38">
@@ -1996,13 +2674,31 @@
         <v>360.190888822079</v>
       </c>
       <c r="I38">
+        <v>58.4600052833557</v>
+      </c>
+      <c r="J38">
+        <v>66.1076300144196</v>
+      </c>
+      <c r="K38">
+        <v>235.623253524303</v>
+      </c>
+      <c r="L38">
         <v>3.144676924210526</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>44.62719343157895</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>75.8296608046482</v>
+      </c>
+      <c r="O38">
+        <v>12.30736953333804</v>
+      </c>
+      <c r="P38">
+        <v>13.91739579250939</v>
+      </c>
+      <c r="Q38">
+        <v>49.60489547880064</v>
       </c>
     </row>
     <row r="39">
@@ -2039,13 +2735,31 @@
         <v>3981.38750062883</v>
       </c>
       <c r="I39">
+        <v>2343.05893459916</v>
+      </c>
+      <c r="J39">
+        <v>731.03351020813</v>
+      </c>
+      <c r="K39">
+        <v>907.295055821538</v>
+      </c>
+      <c r="L39">
         <v>5.615950019452632</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>200.7984088926316</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>838.1868422376484</v>
+      </c>
+      <c r="O39">
+        <v>493.2755651787705</v>
+      </c>
+      <c r="P39">
+        <v>153.9017916227642</v>
+      </c>
+      <c r="Q39">
+        <v>191.0094854361133</v>
       </c>
     </row>
     <row r="40">
@@ -2082,13 +2796,31 @@
         <v>90.7945650815964</v>
       </c>
       <c r="I40">
+        <v>42.7717686891556</v>
+      </c>
+      <c r="J40">
+        <v>33.3216807246208</v>
+      </c>
+      <c r="K40">
+        <v>14.70111566782</v>
+      </c>
+      <c r="L40">
         <v>0.0943959037894737</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>4.316365296842105</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>19.11464528033609</v>
+      </c>
+      <c r="O40">
+        <v>9.004582881927496</v>
+      </c>
+      <c r="P40">
+        <v>7.015090678867536</v>
+      </c>
+      <c r="Q40">
+        <v>3.094971719541053</v>
       </c>
     </row>
     <row r="41">
@@ -2125,13 +2857,31 @@
         <v>4720.45389080048</v>
       </c>
       <c r="I41">
+        <v>1728.16053026915</v>
+      </c>
+      <c r="J41">
+        <v>1090.07887542248</v>
+      </c>
+      <c r="K41">
+        <v>1902.21448510885</v>
+      </c>
+      <c r="L41">
         <v>14.25753490730527</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>341.5704234147369</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>993.7797664843116</v>
+      </c>
+      <c r="O41">
+        <v>363.8232695303474</v>
+      </c>
+      <c r="P41">
+        <v>229.4902895626274</v>
+      </c>
+      <c r="Q41">
+        <v>400.4662073913369</v>
       </c>
     </row>
     <row r="42">
@@ -2168,13 +2918,31 @@
         <v>100.52829836309</v>
       </c>
       <c r="I42">
+        <v>46.6567102819681</v>
+      </c>
+      <c r="J42">
+        <v>18.3675492703915</v>
+      </c>
+      <c r="K42">
+        <v>35.50403881073</v>
+      </c>
+      <c r="L42">
         <v>0.1888151355789474</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>6.09950347368421</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>21.16385228696632</v>
+      </c>
+      <c r="O42">
+        <v>9.8224653225196</v>
+      </c>
+      <c r="P42">
+        <v>3.866852477977158</v>
+      </c>
+      <c r="Q42">
+        <v>7.474534486469474</v>
       </c>
     </row>
     <row r="43">
@@ -2211,13 +2979,31 @@
         <v>3127.62896195054</v>
       </c>
       <c r="I43">
+        <v>1297.23407614231</v>
+      </c>
+      <c r="J43">
+        <v>627.594471201301</v>
+      </c>
+      <c r="K43">
+        <v>1202.80041460693</v>
+      </c>
+      <c r="L43">
         <v>11.20361781107368</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>237.6274601705264</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>658.4482025159032</v>
+      </c>
+      <c r="O43">
+        <v>273.1019107668021</v>
+      </c>
+      <c r="P43">
+        <v>132.1251518318528</v>
+      </c>
+      <c r="Q43">
+        <v>253.2211399172484</v>
       </c>
     </row>
     <row r="44">
@@ -2254,13 +3040,31 @@
         <v>2907.24176007509</v>
       </c>
       <c r="I44">
+        <v>974.440387487411</v>
+      </c>
+      <c r="J44">
+        <v>624.73543921113</v>
+      </c>
+      <c r="K44">
+        <v>1308.06593337655</v>
+      </c>
+      <c r="L44">
         <v>13.51410746023158</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>248.0874200357895</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>612.0508968579137</v>
+      </c>
+      <c r="O44">
+        <v>205.1453447341918</v>
+      </c>
+      <c r="P44">
+        <v>131.5232503602379</v>
+      </c>
+      <c r="Q44">
+        <v>275.3823017634842</v>
       </c>
     </row>
     <row r="45">
@@ -2297,13 +3101,31 @@
         <v>265.037250190973</v>
       </c>
       <c r="I45">
+        <v>120.959466397762</v>
+      </c>
+      <c r="J45">
+        <v>46.696961581707</v>
+      </c>
+      <c r="K45">
+        <v>97.380822211504</v>
+      </c>
+      <c r="L45">
         <v>0.5037157278526316</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>15.99710743789474</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>55.79731582967852</v>
+      </c>
+      <c r="O45">
+        <v>25.46515082058147</v>
+      </c>
+      <c r="P45">
+        <v>9.830939280359369</v>
+      </c>
+      <c r="Q45">
+        <v>20.50122572873768</v>
       </c>
     </row>
     <row r="46">
@@ -2340,13 +3162,31 @@
         <v>2533.31263515353</v>
       </c>
       <c r="I46">
+        <v>819.521727532148</v>
+      </c>
+      <c r="J46">
+        <v>595.393096387386</v>
+      </c>
+      <c r="K46">
+        <v>1118.397811234</v>
+      </c>
+      <c r="L46">
         <v>12.12277348534737</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>220.8480723789474</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>533.3289758217959</v>
+      </c>
+      <c r="O46">
+        <v>172.530890006768</v>
+      </c>
+      <c r="P46">
+        <v>125.3459150289234</v>
+      </c>
+      <c r="Q46">
+        <v>235.4521707861053</v>
       </c>
     </row>
     <row r="47">
@@ -2383,13 +3223,31 @@
         <v>1464.46751010418</v>
       </c>
       <c r="I47">
+        <v>293.870872974396</v>
+      </c>
+      <c r="J47">
+        <v>284.299767911434</v>
+      </c>
+      <c r="K47">
+        <v>886.296869218349</v>
+      </c>
+      <c r="L47">
         <v>9.055624116273684</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>152.8199717115789</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>308.3089494956169</v>
+      </c>
+      <c r="O47">
+        <v>61.867552205136</v>
+      </c>
+      <c r="P47">
+        <v>59.85258271819664</v>
+      </c>
+      <c r="Q47">
+        <v>186.588814572284</v>
       </c>
     </row>
     <row r="48">
@@ -2426,13 +3284,31 @@
         <v>5341.57039743662</v>
       </c>
       <c r="I48">
+        <v>1750.54373201728</v>
+      </c>
+      <c r="J48">
+        <v>1130.11567866802</v>
+      </c>
+      <c r="K48">
+        <v>2460.91098675132</v>
+      </c>
+      <c r="L48">
         <v>30.29351157722105</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>491.3103162021054</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>1124.541136302446</v>
+      </c>
+      <c r="O48">
+        <v>368.5355225299537</v>
+      </c>
+      <c r="P48">
+        <v>237.919090245899</v>
+      </c>
+      <c r="Q48">
+        <v>518.0865235265936</v>
       </c>
     </row>
     <row r="49">
@@ -2469,13 +3345,31 @@
         <v>4715.7360675782</v>
       </c>
       <c r="I49">
+        <v>1712.972208336</v>
+      </c>
+      <c r="J49">
+        <v>920.219838783145</v>
+      </c>
+      <c r="K49">
+        <v>2082.54402045906</v>
+      </c>
+      <c r="L49">
         <v>20.37434490126316</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>401.3414785557894</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>992.786540542779</v>
+      </c>
+      <c r="O49">
+        <v>360.6257280707368</v>
+      </c>
+      <c r="P49">
+        <v>193.730492375399</v>
+      </c>
+      <c r="Q49">
+        <v>438.4303200966443</v>
       </c>
     </row>
     <row r="50">
@@ -2512,13 +3406,31 @@
         <v>497.00852894783</v>
       </c>
       <c r="I50">
+        <v>109.71588242054</v>
+      </c>
+      <c r="J50">
+        <v>72.1075369119644</v>
+      </c>
+      <c r="K50">
+        <v>315.185109615326</v>
+      </c>
+      <c r="L50">
         <v>4.82348638168421</v>
       </c>
-      <c r="J50">
+      <c r="M50">
         <v>63.76337402736842</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>104.6333745153326</v>
+      </c>
+      <c r="O50">
+        <v>23.09808050958737</v>
+      </c>
+      <c r="P50">
+        <v>15.18053408672935</v>
+      </c>
+      <c r="Q50">
+        <v>66.354759919016</v>
       </c>
     </row>
     <row r="51">
@@ -2555,13 +3467,31 @@
         <v>2883.35612747073</v>
       </c>
       <c r="I51">
+        <v>1329.95147019625</v>
+      </c>
+      <c r="J51">
+        <v>716.304772973061</v>
+      </c>
+      <c r="K51">
+        <v>837.099884301424</v>
+      </c>
+      <c r="L51">
         <v>7.742804067894737</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>182.6601630294737</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>607.0223426254169</v>
+      </c>
+      <c r="O51">
+        <v>279.9897831992105</v>
+      </c>
+      <c r="P51">
+        <v>150.8010048364339</v>
+      </c>
+      <c r="Q51">
+        <v>176.2315545897735</v>
       </c>
     </row>
     <row r="52">
@@ -2598,13 +3528,31 @@
         <v>1320.29184257984</v>
       </c>
       <c r="I52">
+        <v>403.766467392445</v>
+      </c>
+      <c r="J52">
+        <v>230.765433192253</v>
+      </c>
+      <c r="K52">
+        <v>685.759941995144</v>
+      </c>
+      <c r="L52">
         <v>8.635327050947369</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>135.1595720842105</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>277.9561773852295</v>
+      </c>
+      <c r="O52">
+        <v>85.00346681946211</v>
+      </c>
+      <c r="P52">
+        <v>48.58219646152696</v>
+      </c>
+      <c r="Q52">
+        <v>144.3705141042408</v>
       </c>
     </row>
     <row r="53">
@@ -2641,13 +3589,31 @@
         <v>737.95461127162</v>
       </c>
       <c r="I53">
+        <v>213.989808440208</v>
+      </c>
+      <c r="J53">
+        <v>186.85907933116</v>
+      </c>
+      <c r="K53">
+        <v>337.105723500252</v>
+      </c>
+      <c r="L53">
         <v>2.513687818610527</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>58.20957232000001</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>155.3588655308674</v>
+      </c>
+      <c r="O53">
+        <v>45.05048598741222</v>
+      </c>
+      <c r="P53">
+        <v>39.33875354340211</v>
+      </c>
+      <c r="Q53">
+        <v>70.96962600005305</v>
       </c>
     </row>
     <row r="54">
@@ -2684,13 +3650,31 @@
         <v>93.468857884407</v>
       </c>
       <c r="I54">
+        <v>23.2282860279083</v>
+      </c>
+      <c r="J54">
+        <v>13.5473551750183</v>
+      </c>
+      <c r="K54">
+        <v>56.6932166814804</v>
+      </c>
+      <c r="L54">
         <v>0.2530292231578947</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>7.16639985263158</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>19.6776542914541</v>
+      </c>
+      <c r="O54">
+        <v>4.890165479559642</v>
+      </c>
+      <c r="P54">
+        <v>2.852074773688063</v>
+      </c>
+      <c r="Q54">
+        <v>11.9354140382064</v>
       </c>
     </row>
     <row r="55">
@@ -2727,13 +3711,31 @@
         <v>2659.6609596014</v>
       </c>
       <c r="I55">
+        <v>916.560570448637</v>
+      </c>
+      <c r="J55">
+        <v>616.199077963829</v>
+      </c>
+      <c r="K55">
+        <v>1126.90131118894</v>
+      </c>
+      <c r="L55">
         <v>8.274742979347369</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>197.4098309536842</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>559.928623073979</v>
+      </c>
+      <c r="O55">
+        <v>192.9601200944499</v>
+      </c>
+      <c r="P55">
+        <v>129.7261216765956</v>
+      </c>
+      <c r="Q55">
+        <v>237.2423813029348</v>
       </c>
     </row>
     <row r="56">
@@ -2770,13 +3772,31 @@
         <v>1498.83367209136</v>
       </c>
       <c r="I56">
+        <v>619.307042002678</v>
+      </c>
+      <c r="J56">
+        <v>359.904665187001</v>
+      </c>
+      <c r="K56">
+        <v>519.6219649016861</v>
+      </c>
+      <c r="L56">
         <v>8.038019140547368</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>121.8251180842105</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>315.5439309666021</v>
+      </c>
+      <c r="O56">
+        <v>130.3804298953006</v>
+      </c>
+      <c r="P56">
+        <v>75.76940319726337</v>
+      </c>
+      <c r="Q56">
+        <v>109.3940978740392</v>
       </c>
     </row>
     <row r="57">
@@ -2813,13 +3833,31 @@
         <v>85.1035608053207</v>
       </c>
       <c r="I57">
+        <v>32.1669046878815</v>
+      </c>
+      <c r="J57">
+        <v>17.140745639801</v>
+      </c>
+      <c r="K57">
+        <v>35.7959104776382</v>
+      </c>
+      <c r="L57">
         <v>0.2404416813052632</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>6.165991376842105</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>17.91653911690962</v>
+      </c>
+      <c r="O57">
+        <v>6.771979934290842</v>
+      </c>
+      <c r="P57">
+        <v>3.60857802943179</v>
+      </c>
+      <c r="Q57">
+        <v>7.535981153186991</v>
       </c>
     </row>
     <row r="58">
@@ -2856,13 +3894,31 @@
         <v>2043.51015153527</v>
       </c>
       <c r="I58">
+        <v>757.883041024208</v>
+      </c>
+      <c r="J58">
+        <v>505.734081715345</v>
+      </c>
+      <c r="K58">
+        <v>779.893028795719</v>
+      </c>
+      <c r="L58">
         <v>7.929277931410527</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>155.56640052</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>430.2126634811095</v>
+      </c>
+      <c r="O58">
+        <v>159.554324426149</v>
+      </c>
+      <c r="P58">
+        <v>106.4703329927042</v>
+      </c>
+      <c r="Q58">
+        <v>164.1880060622567</v>
       </c>
     </row>
     <row r="59">
@@ -2899,13 +3955,31 @@
         <v>1757.07621058822</v>
       </c>
       <c r="I59">
+        <v>630.44247610867</v>
+      </c>
+      <c r="J59">
+        <v>397.455019280314</v>
+      </c>
+      <c r="K59">
+        <v>729.178715199232</v>
+      </c>
+      <c r="L59">
         <v>9.757019166842106</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>156.1926092168421</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>369.9107811764674</v>
+      </c>
+      <c r="O59">
+        <v>132.7247318123516</v>
+      </c>
+      <c r="P59">
+        <v>83.67474090111874</v>
+      </c>
+      <c r="Q59">
+        <v>153.5113084629962</v>
       </c>
     </row>
     <row r="60">
@@ -2942,13 +4016,31 @@
         <v>777.641296386719</v>
       </c>
       <c r="I60">
+        <v>241.69548869133</v>
+      </c>
+      <c r="J60">
+        <v>154.560440778732</v>
+      </c>
+      <c r="K60">
+        <v>381.385366916656</v>
+      </c>
+      <c r="L60">
         <v>3.936741540842105</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>70.87160134736843</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>163.7139571340461</v>
+      </c>
+      <c r="O60">
+        <v>50.88326077712211</v>
+      </c>
+      <c r="P60">
+        <v>32.53904016394358</v>
+      </c>
+      <c r="Q60">
+        <v>80.29165619298021</v>
       </c>
     </row>
     <row r="61">
@@ -2985,13 +4077,31 @@
         <v>189.457931756973</v>
       </c>
       <c r="I61">
+        <v>70.2713899612427</v>
+      </c>
+      <c r="J61">
+        <v>52.9410226345062</v>
+      </c>
+      <c r="K61">
+        <v>66.24551916122439</v>
+      </c>
+      <c r="L61">
         <v>0.7133730454736842</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>14.29178170526316</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>39.88588036988906</v>
+      </c>
+      <c r="O61">
+        <v>14.79397683394583</v>
+      </c>
+      <c r="P61">
+        <v>11.14547844936973</v>
+      </c>
+      <c r="Q61">
+        <v>13.94642508657356</v>
       </c>
     </row>
     <row r="62">
@@ -3028,13 +4138,31 @@
         <v>726.454589366913</v>
       </c>
       <c r="I62">
+        <v>343.030439674854</v>
+      </c>
+      <c r="J62">
+        <v>186.131239533424</v>
+      </c>
+      <c r="K62">
+        <v>197.292910158634</v>
+      </c>
+      <c r="L62">
         <v>1.41964876391579</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>43.40385137894737</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>152.9378082877712</v>
+      </c>
+      <c r="O62">
+        <v>72.21693466839032</v>
+      </c>
+      <c r="P62">
+        <v>39.1855241122998</v>
+      </c>
+      <c r="Q62">
+        <v>41.53534950708085</v>
       </c>
     </row>
     <row r="63">
@@ -3071,13 +4199,31 @@
         <v>129.4337053895</v>
       </c>
       <c r="I63">
+        <v>78.04111170768741</v>
+      </c>
+      <c r="J63">
+        <v>43.1094400286674</v>
+      </c>
+      <c r="K63">
+        <v>8.28315365314484</v>
+      </c>
+      <c r="L63">
         <v>0.1057637154105263</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>5.490039389473685</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>27.24920113463158</v>
+      </c>
+      <c r="O63">
+        <v>16.42970772793419</v>
+      </c>
+      <c r="P63">
+        <v>9.075671584982612</v>
+      </c>
+      <c r="Q63">
+        <v>1.743821821714703</v>
       </c>
     </row>
     <row r="64">
@@ -3114,13 +4260,31 @@
         <v>172.813111960888</v>
       </c>
       <c r="I64">
+        <v>85.0045228004456</v>
+      </c>
+      <c r="J64">
+        <v>31.9263555407524</v>
+      </c>
+      <c r="K64">
+        <v>55.8822336196899</v>
+      </c>
+      <c r="L64">
         <v>0.8872403569052632</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>14.33355017684211</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>36.38170778123958</v>
+      </c>
+      <c r="O64">
+        <v>17.89568901062012</v>
+      </c>
+      <c r="P64">
+        <v>6.721338008579453</v>
+      </c>
+      <c r="Q64">
+        <v>11.76468076203998</v>
       </c>
     </row>
     <row r="65">
@@ -3157,13 +4321,31 @@
         <v>6647.77750423551</v>
       </c>
       <c r="I65">
+        <v>2299.7019071579</v>
+      </c>
+      <c r="J65">
+        <v>1364.25489869714</v>
+      </c>
+      <c r="K65">
+        <v>2983.82069838047</v>
+      </c>
+      <c r="L65">
         <v>21.1900275507579</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>501.8937786757895</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>1399.532106154844</v>
+      </c>
+      <c r="O65">
+        <v>484.147769927979</v>
+      </c>
+      <c r="P65">
+        <v>287.2115576204506</v>
+      </c>
+      <c r="Q65">
+        <v>628.1727786064147</v>
       </c>
     </row>
     <row r="66">
@@ -3200,13 +4382,31 @@
         <v>704.042362749577</v>
       </c>
       <c r="I66">
+        <v>214.323219418526</v>
+      </c>
+      <c r="J66">
+        <v>251.444726347923</v>
+      </c>
+      <c r="K66">
+        <v>238.274416983128</v>
+      </c>
+      <c r="L66">
         <v>1.742178649621053</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>47.05859093263158</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>148.2194447893846</v>
+      </c>
+      <c r="O66">
+        <v>45.12067777232127</v>
+      </c>
+      <c r="P66">
+        <v>52.93573186272064</v>
+      </c>
+      <c r="Q66">
+        <v>50.16303515434274</v>
       </c>
     </row>
     <row r="67">
@@ -3243,13 +4443,31 @@
         <v>2457.53724086285</v>
       </c>
       <c r="I67">
+        <v>1498.10232436657</v>
+      </c>
+      <c r="J67">
+        <v>503.404292374849</v>
+      </c>
+      <c r="K67">
+        <v>456.030624121428</v>
+      </c>
+      <c r="L67">
         <v>4.349893612063158</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>128.4074496484211</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>517.3762612342842</v>
+      </c>
+      <c r="O67">
+        <v>315.3899630245411</v>
+      </c>
+      <c r="P67">
+        <v>105.979851026284</v>
+      </c>
+      <c r="Q67">
+        <v>96.00644718345852</v>
       </c>
     </row>
     <row r="68">
@@ -3286,13 +4504,31 @@
         <v>437.724057137966</v>
       </c>
       <c r="I68">
+        <v>120.478648662567</v>
+      </c>
+      <c r="J68">
+        <v>154.680987596512</v>
+      </c>
+      <c r="K68">
+        <v>162.564420878887</v>
+      </c>
+      <c r="L68">
         <v>0.8005415714947368</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>27.47606235789474</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>92.15243308167706</v>
+      </c>
+      <c r="O68">
+        <v>25.36392603422463</v>
+      </c>
+      <c r="P68">
+        <v>32.56441844137095</v>
+      </c>
+      <c r="Q68">
+        <v>34.22408860608147</v>
       </c>
     </row>
     <row r="69">
@@ -3329,13 +4565,31 @@
         <v>5256.7250957787</v>
       </c>
       <c r="I69">
+        <v>3228.28716659546</v>
+      </c>
+      <c r="J69">
+        <v>859.747226327658</v>
+      </c>
+      <c r="K69">
+        <v>1168.69070285559</v>
+      </c>
+      <c r="L69">
         <v>9.62625407608421</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>284.2093687284211</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>1106.678967532358</v>
+      </c>
+      <c r="O69">
+        <v>679.6394034937811</v>
+      </c>
+      <c r="P69">
+        <v>180.9994160689807</v>
+      </c>
+      <c r="Q69">
+        <v>246.0401479695979</v>
       </c>
     </row>
     <row r="70">
@@ -3372,13 +4626,31 @@
         <v>1151.78122808039</v>
       </c>
       <c r="I70">
+        <v>419.705226972699</v>
+      </c>
+      <c r="J70">
+        <v>226.046758919954</v>
+      </c>
+      <c r="K70">
+        <v>506.029242187738</v>
+      </c>
+      <c r="L70">
         <v>5.695058900863159</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>99.76306308000001</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>242.48025854324</v>
+      </c>
+      <c r="O70">
+        <v>88.35899515214716</v>
+      </c>
+      <c r="P70">
+        <v>47.58879135156926</v>
+      </c>
+      <c r="Q70">
+        <v>106.5324720395238</v>
       </c>
     </row>
     <row r="71">
@@ -3415,13 +4687,31 @@
         <v>2850.50166559219</v>
       </c>
       <c r="I71">
+        <v>971.956245839596</v>
+      </c>
+      <c r="J71">
+        <v>705.317782685161</v>
+      </c>
+      <c r="K71">
+        <v>1173.22763706744</v>
+      </c>
+      <c r="L71">
         <v>8.245802120042105</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>205.6706167494737</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>600.1056138088821</v>
+      </c>
+      <c r="O71">
+        <v>204.6223675451781</v>
+      </c>
+      <c r="P71">
+        <v>148.4879542495076</v>
+      </c>
+      <c r="Q71">
+        <v>246.9952920141979</v>
       </c>
     </row>
     <row r="72">
@@ -3458,13 +4748,31 @@
         <v>3283.62657234073</v>
       </c>
       <c r="I72">
+        <v>1391.09827128053</v>
+      </c>
+      <c r="J72">
+        <v>868.829456403852</v>
+      </c>
+      <c r="K72">
+        <v>1023.69884465635</v>
+      </c>
+      <c r="L72">
         <v>6.809133246463158</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>200.0881587852632</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>691.2898047033117</v>
+      </c>
+      <c r="O72">
+        <v>292.8627939537959</v>
+      </c>
+      <c r="P72">
+        <v>182.9114645060741</v>
+      </c>
+      <c r="Q72">
+        <v>215.5155462434422</v>
       </c>
     </row>
     <row r="73">
@@ -3501,13 +4809,31 @@
         <v>73.30098748207089</v>
       </c>
       <c r="I73">
+        <v>55.9841562509537</v>
+      </c>
+      <c r="J73">
+        <v>17.0219225883484</v>
+      </c>
+      <c r="K73">
+        <v>0.29490864276886</v>
+      </c>
+      <c r="L73">
         <v>0.03644744568421052</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>2.507745473684211</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>15.43178683833072</v>
+      </c>
+      <c r="O73">
+        <v>11.78613815809552</v>
+      </c>
+      <c r="P73">
+        <v>3.583562650178611</v>
+      </c>
+      <c r="Q73">
+        <v>0.06208603005660211</v>
       </c>
     </row>
     <row r="74">
@@ -3544,13 +4870,31 @@
         <v>679.490454182029</v>
       </c>
       <c r="I74">
+        <v>249.792742848396</v>
+      </c>
+      <c r="J74">
+        <v>172.707849785686</v>
+      </c>
+      <c r="K74">
+        <v>256.989861547947</v>
+      </c>
+      <c r="L74">
         <v>2.098398883305263</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>48.90367909473685</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>143.0506219330588</v>
+      </c>
+      <c r="O74">
+        <v>52.58794586282021</v>
+      </c>
+      <c r="P74">
+        <v>36.35954732330232</v>
+      </c>
+      <c r="Q74">
+        <v>54.10312874693621</v>
       </c>
     </row>
     <row r="75">
@@ -3587,13 +4931,31 @@
         <v>1885.02252429724</v>
       </c>
       <c r="I75">
+        <v>600.177817642689</v>
+      </c>
+      <c r="J75">
+        <v>430.844296485186</v>
+      </c>
+      <c r="K75">
+        <v>854.000410169363</v>
+      </c>
+      <c r="L75">
         <v>6.999835473494738</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>148.8189250178947</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>396.8468472204716</v>
+      </c>
+      <c r="O75">
+        <v>126.3532247668819</v>
+      </c>
+      <c r="P75">
+        <v>90.7040624179339</v>
+      </c>
+      <c r="Q75">
+        <v>179.7895600356554</v>
       </c>
     </row>
     <row r="76">
@@ -3630,13 +4992,31 @@
         <v>561.9587989300491</v>
       </c>
       <c r="I76">
+        <v>269.035026609898</v>
+      </c>
+      <c r="J76">
+        <v>165.148868083954</v>
+      </c>
+      <c r="K76">
+        <v>127.774904236197</v>
+      </c>
+      <c r="L76">
         <v>0.8649201792421053</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>30.1573063831579</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>118.3071155642209</v>
+      </c>
+      <c r="O76">
+        <v>56.63895297050485</v>
+      </c>
+      <c r="P76">
+        <v>34.76818275451663</v>
+      </c>
+      <c r="Q76">
+        <v>26.89997983919937</v>
       </c>
     </row>
     <row r="77">
@@ -3673,13 +5053,31 @@
         <v>469.772513896227</v>
       </c>
       <c r="I77">
+        <v>289.111450314522</v>
+      </c>
+      <c r="J77">
+        <v>86.7416618019342</v>
+      </c>
+      <c r="K77">
+        <v>93.91940177977089</v>
+      </c>
+      <c r="L77">
         <v>0.6683261344631578</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>23.41219891578948</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>98.89947660973201</v>
+      </c>
+      <c r="O77">
+        <v>60.86556848726779</v>
+      </c>
+      <c r="P77">
+        <v>18.26140248461773</v>
+      </c>
+      <c r="Q77">
+        <v>19.7725056378465</v>
       </c>
     </row>
     <row r="78">
@@ -3716,13 +5114,31 @@
         <v>718.094665214419</v>
       </c>
       <c r="I78">
+        <v>134.397001743317</v>
+      </c>
+      <c r="J78">
+        <v>126.289109021425</v>
+      </c>
+      <c r="K78">
+        <v>457.408554449677</v>
+      </c>
+      <c r="L78">
         <v>5.014210312610526</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>81.08222981263158</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>151.1778242556672</v>
+      </c>
+      <c r="O78">
+        <v>28.294105630172</v>
+      </c>
+      <c r="P78">
+        <v>26.58718084661579</v>
+      </c>
+      <c r="Q78">
+        <v>96.29653777887937</v>
       </c>
     </row>
     <row r="79">
@@ -3759,13 +5175,31 @@
         <v>44.5000551342964</v>
       </c>
       <c r="I79">
+        <v>13.5338753461838</v>
+      </c>
+      <c r="J79">
+        <v>12.4742546081543</v>
+      </c>
+      <c r="K79">
+        <v>18.4919251799583</v>
+      </c>
+      <c r="L79">
         <v>0.1670177877894737</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>3.639772665263158</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>9.368432659851875</v>
+      </c>
+      <c r="O79">
+        <v>2.849236914986063</v>
+      </c>
+      <c r="P79">
+        <v>2.62615886487459</v>
+      </c>
+      <c r="Q79">
+        <v>3.893036879991222</v>
       </c>
     </row>
     <row r="80">
@@ -3802,13 +5236,31 @@
         <v>1230.26506608725</v>
       </c>
       <c r="I80">
+        <v>553.267619371414</v>
+      </c>
+      <c r="J80">
+        <v>285.429674223065</v>
+      </c>
+      <c r="K80">
+        <v>391.567772492766</v>
+      </c>
+      <c r="L80">
         <v>3.59248640551579</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>82.72394422105263</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>259.0031718078421</v>
+      </c>
+      <c r="O80">
+        <v>116.4773935518766</v>
+      </c>
+      <c r="P80">
+        <v>60.09045773117158</v>
+      </c>
+      <c r="Q80">
+        <v>82.43532052479284</v>
       </c>
     </row>
     <row r="81">
@@ -3845,13 +5297,31 @@
         <v>69.8890905380249</v>
       </c>
       <c r="I81">
+        <v>25.4696755409241</v>
+      </c>
+      <c r="J81">
+        <v>29.5960264205933</v>
+      </c>
+      <c r="K81">
+        <v>14.8233885765076</v>
+      </c>
+      <c r="L81">
         <v>0.09289377221052632</v>
       </c>
-      <c r="J81">
+      <c r="M81">
         <v>3.745794610526316</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>14.71349274484735</v>
+      </c>
+      <c r="O81">
+        <v>5.362036955984022</v>
+      </c>
+      <c r="P81">
+        <v>6.230742404335432</v>
+      </c>
+      <c r="Q81">
+        <v>3.120713384527916</v>
       </c>
     </row>
     <row r="82">
@@ -3888,13 +5358,31 @@
         <v>4783.15413713455</v>
       </c>
       <c r="I82">
+        <v>2498.24873673916</v>
+      </c>
+      <c r="J82">
+        <v>1082.09644383192</v>
+      </c>
+      <c r="K82">
+        <v>1202.80895656347</v>
+      </c>
+      <c r="L82">
         <v>9.428220093663159</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>271.3619122042106</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>1006.979818344116</v>
+      </c>
+      <c r="O82">
+        <v>525.9471024714021</v>
+      </c>
+      <c r="P82">
+        <v>227.8097776488253</v>
+      </c>
+      <c r="Q82">
+        <v>253.2229382238884</v>
       </c>
     </row>
     <row r="83">
@@ -3931,13 +5419,31 @@
         <v>62.3581247329712</v>
       </c>
       <c r="I83">
+        <v>39.2950074672699</v>
+      </c>
+      <c r="J83">
+        <v>15.1639866828918</v>
+      </c>
+      <c r="K83">
+        <v>7.89913058280945</v>
+      </c>
+      <c r="L83">
         <v>0.05224266751578948</v>
       </c>
-      <c r="J83">
+      <c r="M83">
         <v>2.6207136</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>13.12802625957288</v>
+      </c>
+      <c r="O83">
+        <v>8.27263315100419</v>
+      </c>
+      <c r="P83">
+        <v>3.192418249029853</v>
+      </c>
+      <c r="Q83">
+        <v>1.662974859538832</v>
       </c>
     </row>
     <row r="84">
@@ -3974,13 +5480,31 @@
         <v>1610.4438637495</v>
       </c>
       <c r="I84">
+        <v>528.258426368237</v>
+      </c>
+      <c r="J84">
+        <v>467.035305321217</v>
+      </c>
+      <c r="K84">
+        <v>615.150132060051</v>
+      </c>
+      <c r="L84">
         <v>4.016557388842106</v>
       </c>
-      <c r="J84">
+      <c r="M84">
         <v>110.9764958</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>339.0408134209474</v>
+      </c>
+      <c r="O84">
+        <v>111.2123002880499</v>
+      </c>
+      <c r="P84">
+        <v>98.32322217288778</v>
+      </c>
+      <c r="Q84">
+        <v>129.5052909600107</v>
       </c>
     </row>
     <row r="85">
@@ -4017,13 +5541,31 @@
         <v>1415.86216974258</v>
       </c>
       <c r="I85">
+        <v>313.979930043221</v>
+      </c>
+      <c r="J85">
+        <v>287.737340033054</v>
+      </c>
+      <c r="K85">
+        <v>814.144899666309</v>
+      </c>
+      <c r="L85">
         <v>9.682739168294738</v>
       </c>
-      <c r="J85">
+      <c r="M85">
         <v>152.0783927684211</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>298.0762462615958</v>
+      </c>
+      <c r="O85">
+        <v>66.101037903836</v>
+      </c>
+      <c r="P85">
+        <v>60.5762821122219</v>
+      </c>
+      <c r="Q85">
+        <v>171.3989262455388</v>
       </c>
     </row>
     <row r="86">
@@ -4060,13 +5602,31 @@
         <v>7221.39312213659</v>
       </c>
       <c r="I86">
+        <v>3607.96818959713</v>
+      </c>
+      <c r="J86">
+        <v>1449.59264069796</v>
+      </c>
+      <c r="K86">
+        <v>2163.83229184151</v>
+      </c>
+      <c r="L86">
         <v>20.99666467593684</v>
       </c>
-      <c r="J86">
+      <c r="M86">
         <v>471.145275088421</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>1520.293288870861</v>
+      </c>
+      <c r="O86">
+        <v>759.5722504415011</v>
+      </c>
+      <c r="P86">
+        <v>305.1773980416758</v>
+      </c>
+      <c r="Q86">
+        <v>455.5436403876864</v>
       </c>
     </row>
     <row r="87">
@@ -4103,13 +5663,31 @@
         <v>119.80144238472</v>
       </c>
       <c r="I87">
+        <v>49.3599762916565</v>
+      </c>
+      <c r="J87">
+        <v>23.0734233856201</v>
+      </c>
+      <c r="K87">
+        <v>47.3680427074432</v>
+      </c>
+      <c r="L87">
         <v>0.2181575654736842</v>
       </c>
-      <c r="J87">
+      <c r="M87">
         <v>7.293577073684211</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>25.22135629152</v>
+      </c>
+      <c r="O87">
+        <v>10.39157395613821</v>
+      </c>
+      <c r="P87">
+        <v>4.857562818025284</v>
+      </c>
+      <c r="Q87">
+        <v>9.972219517356464</v>
       </c>
     </row>
     <row r="88">
@@ -4146,13 +5724,31 @@
         <v>1871.32342034578</v>
       </c>
       <c r="I88">
+        <v>548.252651035786</v>
+      </c>
+      <c r="J88">
+        <v>409.135183960199</v>
+      </c>
+      <c r="K88">
+        <v>913.935585349798</v>
+      </c>
+      <c r="L88">
         <v>13.85327046677895</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>188.2852029431579</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>393.9628253359537</v>
+      </c>
+      <c r="O88">
+        <v>115.421610744376</v>
+      </c>
+      <c r="P88">
+        <v>86.13372293898928</v>
+      </c>
+      <c r="Q88">
+        <v>192.4074916525891</v>
       </c>
     </row>
     <row r="89">
@@ -4189,13 +5785,31 @@
         <v>753.966084957123</v>
       </c>
       <c r="I89">
+        <v>131.391843020916</v>
+      </c>
+      <c r="J89">
+        <v>161.575554311275</v>
+      </c>
+      <c r="K89">
+        <v>460.998687624931</v>
+      </c>
+      <c r="L89">
         <v>7.968175117473685</v>
       </c>
-      <c r="J89">
+      <c r="M89">
         <v>93.93524611578947</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>158.7297020962364</v>
+      </c>
+      <c r="O89">
+        <v>27.66144063598232</v>
+      </c>
+      <c r="P89">
+        <v>34.01590617079474</v>
+      </c>
+      <c r="Q89">
+        <v>97.05235528945917</v>
       </c>
     </row>
     <row r="90">
@@ -4232,13 +5846,31 @@
         <v>232.220117777586</v>
       </c>
       <c r="I90">
+        <v>67.619765996933</v>
+      </c>
+      <c r="J90">
+        <v>60.8108390569687</v>
+      </c>
+      <c r="K90">
+        <v>103.789512723684</v>
+      </c>
+      <c r="L90">
         <v>0.7193046817473684</v>
       </c>
-      <c r="J90">
+      <c r="M90">
         <v>17.65671052421053</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>48.88844584791285</v>
+      </c>
+      <c r="O90">
+        <v>14.23574020988063</v>
+      </c>
+      <c r="P90">
+        <v>12.80228190673025</v>
+      </c>
+      <c r="Q90">
+        <v>21.8504237313019</v>
       </c>
     </row>
     <row r="91">
@@ -4275,13 +5907,31 @@
         <v>5980.54628427327</v>
       </c>
       <c r="I91">
+        <v>2734.17973399162</v>
+      </c>
+      <c r="J91">
+        <v>1300.37562534213</v>
+      </c>
+      <c r="K91">
+        <v>1945.99092493951</v>
+      </c>
+      <c r="L91">
         <v>13.93364633317895</v>
       </c>
-      <c r="J91">
+      <c r="M91">
         <v>374.1862120778948</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>1259.062375636478</v>
+      </c>
+      <c r="O91">
+        <v>575.616786103499</v>
+      </c>
+      <c r="P91">
+        <v>273.7632895457116</v>
+      </c>
+      <c r="Q91">
+        <v>409.6822999872653</v>
       </c>
     </row>
     <row r="92">
@@ -4318,13 +5968,31 @@
         <v>321.63929527998</v>
       </c>
       <c r="I92">
+        <v>89.68425798416141</v>
+      </c>
+      <c r="J92">
+        <v>80.53222501277919</v>
+      </c>
+      <c r="K92">
+        <v>151.422812283039</v>
+      </c>
+      <c r="L92">
         <v>1.134766763157895</v>
       </c>
-      <c r="J92">
+      <c r="M92">
         <v>26.06135654526316</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>67.71353584841684</v>
+      </c>
+      <c r="O92">
+        <v>18.88089641771819</v>
+      </c>
+      <c r="P92">
+        <v>16.9541526342693</v>
+      </c>
+      <c r="Q92">
+        <v>31.87848679642927</v>
       </c>
     </row>
     <row r="93">
@@ -4361,13 +6029,31 @@
         <v>591.678754836321</v>
       </c>
       <c r="I93">
+        <v>277.872530639172</v>
+      </c>
+      <c r="J93">
+        <v>140.666534930468</v>
+      </c>
+      <c r="K93">
+        <v>173.139689266682</v>
+      </c>
+      <c r="L93">
         <v>1.308078343768421</v>
       </c>
-      <c r="J93">
+      <c r="M93">
         <v>36.11916761473685</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>124.5639483865939</v>
+      </c>
+      <c r="O93">
+        <v>58.49948013456253</v>
+      </c>
+      <c r="P93">
+        <v>29.61400735378274</v>
+      </c>
+      <c r="Q93">
+        <v>36.45046089824885</v>
       </c>
     </row>
     <row r="94">
@@ -4404,13 +6090,31 @@
         <v>98.576893299818</v>
       </c>
       <c r="I94">
+        <v>71.8359410762787</v>
+      </c>
+      <c r="J94">
+        <v>13.7732664048672</v>
+      </c>
+      <c r="K94">
+        <v>12.9676858186722</v>
+      </c>
+      <c r="L94">
         <v>0.09020908587368422</v>
       </c>
-      <c r="J94">
+      <c r="M94">
         <v>4.1051394</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>20.75303016838274</v>
+      </c>
+      <c r="O94">
+        <v>15.12335601605868</v>
+      </c>
+      <c r="P94">
+        <v>2.899635032603622</v>
+      </c>
+      <c r="Q94">
+        <v>2.730039119720463</v>
       </c>
     </row>
     <row r="95">
@@ -4447,13 +6151,31 @@
         <v>1103.26559726894</v>
       </c>
       <c r="I95">
+        <v>292.518605470657</v>
+      </c>
+      <c r="J95">
+        <v>259.12269115448</v>
+      </c>
+      <c r="K95">
+        <v>551.624300643802</v>
+      </c>
+      <c r="L95">
         <v>5.264475506863159</v>
       </c>
-      <c r="J95">
+      <c r="M95">
         <v>99.17801966947368</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>232.2664415303032</v>
+      </c>
+      <c r="O95">
+        <v>61.58286430961201</v>
+      </c>
+      <c r="P95">
+        <v>54.55214550620632</v>
+      </c>
+      <c r="Q95">
+        <v>116.1314317144847</v>
       </c>
     </row>
     <row r="96">
@@ -4490,13 +6212,31 @@
         <v>8153.40737622976</v>
       </c>
       <c r="I96">
+        <v>3252.11189985275</v>
+      </c>
+      <c r="J96">
+        <v>1732.05306640267</v>
+      </c>
+      <c r="K96">
+        <v>3169.24240997434</v>
+      </c>
+      <c r="L96">
         <v>30.36282555263158</v>
       </c>
-      <c r="J96">
+      <c r="M96">
         <v>621.6411191494738</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>1716.506816048371</v>
+      </c>
+      <c r="O96">
+        <v>684.6551368111053</v>
+      </c>
+      <c r="P96">
+        <v>364.6427508216148</v>
+      </c>
+      <c r="Q96">
+        <v>667.2089284156505</v>
       </c>
     </row>
     <row r="97">
@@ -4533,13 +6273,31 @@
         <v>3501.78131073713</v>
       </c>
       <c r="I97">
+        <v>1428.29583859444</v>
+      </c>
+      <c r="J97">
+        <v>696.462136805058</v>
+      </c>
+      <c r="K97">
+        <v>1377.02333533764</v>
+      </c>
+      <c r="L97">
         <v>12.88253045031579</v>
       </c>
-      <c r="J97">
+      <c r="M97">
         <v>267.5948738252632</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>737.2171180499221</v>
+      </c>
+      <c r="O97">
+        <v>300.6938607567242</v>
+      </c>
+      <c r="P97">
+        <v>146.6236077484333</v>
+      </c>
+      <c r="Q97">
+        <v>289.8996495447664</v>
       </c>
     </row>
     <row r="98">
@@ -4576,13 +6334,31 @@
         <v>3015.20736896992</v>
       </c>
       <c r="I98">
+        <v>1101.45061568916</v>
+      </c>
+      <c r="J98">
+        <v>599.725459635258</v>
+      </c>
+      <c r="K98">
+        <v>1314.0312936455</v>
+      </c>
+      <c r="L98">
         <v>14.96619859282105</v>
       </c>
-      <c r="J98">
+      <c r="M98">
         <v>261.8041352084211</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>634.7804987305095</v>
+      </c>
+      <c r="O98">
+        <v>231.8843401450863</v>
+      </c>
+      <c r="P98">
+        <v>126.2579915021596</v>
+      </c>
+      <c r="Q98">
+        <v>276.6381670832632</v>
       </c>
     </row>
     <row r="99">
@@ -4619,13 +6395,31 @@
         <v>3250.74577653408</v>
       </c>
       <c r="I99">
+        <v>1301.35575842857</v>
+      </c>
+      <c r="J99">
+        <v>776.037391290069</v>
+      </c>
+      <c r="K99">
+        <v>1173.35262681544</v>
+      </c>
+      <c r="L99">
         <v>12.02450421141053</v>
       </c>
-      <c r="J99">
+      <c r="M99">
         <v>241.7294593726316</v>
       </c>
-      <c r="K99">
+      <c r="N99">
         <v>684.3675319019117</v>
+      </c>
+      <c r="O99">
+        <v>273.9696333533832</v>
+      </c>
+      <c r="P99">
+        <v>163.3762929031724</v>
+      </c>
+      <c r="Q99">
+        <v>247.0216056453558</v>
       </c>
     </row>
     <row r="100">
@@ -4662,13 +6456,31 @@
         <v>878.908962816</v>
       </c>
       <c r="I100">
+        <v>168.394781827927</v>
+      </c>
+      <c r="J100">
+        <v>169.940945416689</v>
+      </c>
+      <c r="K100">
+        <v>540.573235571384</v>
+      </c>
+      <c r="L100">
         <v>4.626789128736842</v>
       </c>
-      <c r="J100">
+      <c r="M100">
         <v>87.34220524842105</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <v>185.033465856</v>
+      </c>
+      <c r="O100">
+        <v>35.45153301640568</v>
+      </c>
+      <c r="P100">
+        <v>35.77704114035558</v>
+      </c>
+      <c r="Q100">
+        <v>113.8048916992387</v>
       </c>
     </row>
     <row r="101">
@@ -4705,13 +6517,31 @@
         <v>632.965787187219</v>
       </c>
       <c r="I101">
+        <v>177.748089313507</v>
+      </c>
+      <c r="J101">
+        <v>131.286933124065</v>
+      </c>
+      <c r="K101">
+        <v>323.930764749646</v>
+      </c>
+      <c r="L101">
         <v>2.147408123642105</v>
       </c>
-      <c r="J101">
+      <c r="M101">
         <v>51.51578067368421</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <v>133.2559551973093</v>
+      </c>
+      <c r="O101">
+        <v>37.42065038179094</v>
+      </c>
+      <c r="P101">
+        <v>27.63935434190842</v>
+      </c>
+      <c r="Q101">
+        <v>68.19595047360969</v>
       </c>
     </row>
     <row r="102">
@@ -4748,13 +6578,31 @@
         <v>119.508729994297</v>
       </c>
       <c r="I102">
+        <v>70.3574583530426</v>
+      </c>
+      <c r="J102">
+        <v>18.5114125609398</v>
+      </c>
+      <c r="K102">
+        <v>30.6398590803146</v>
+      </c>
+      <c r="L102">
         <v>0.2060661842105263</v>
       </c>
-      <c r="J102">
+      <c r="M102">
         <v>6.485216147368422</v>
       </c>
-      <c r="K102">
+      <c r="N102">
         <v>25.15973263037832</v>
+      </c>
+      <c r="O102">
+        <v>14.81209649537739</v>
+      </c>
+      <c r="P102">
+        <v>3.897139486513642</v>
+      </c>
+      <c r="Q102">
+        <v>6.450496648487285</v>
       </c>
     </row>
     <row r="103">
@@ -4791,13 +6639,31 @@
         <v>251.476857274771</v>
       </c>
       <c r="I103">
+        <v>115.682684898376</v>
+      </c>
+      <c r="J103">
+        <v>59.083309173584</v>
+      </c>
+      <c r="K103">
+        <v>76.7108632028103</v>
+      </c>
+      <c r="L103">
         <v>0.4711741945263158</v>
       </c>
-      <c r="J103">
+      <c r="M103">
         <v>14.77503666105263</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <v>52.94249626837284</v>
+      </c>
+      <c r="O103">
+        <v>24.35424945228969</v>
+      </c>
+      <c r="P103">
+        <v>12.43859140496505</v>
+      </c>
+      <c r="Q103">
+        <v>16.14965541111796</v>
       </c>
     </row>
     <row r="104">
@@ -4834,13 +6700,31 @@
         <v>7072.52802658081</v>
       </c>
       <c r="I104">
+        <v>3880.48535591364</v>
+      </c>
+      <c r="J104">
+        <v>1398.51063793898</v>
+      </c>
+      <c r="K104">
+        <v>1793.5320327282</v>
+      </c>
+      <c r="L104">
         <v>15.47260104410526</v>
       </c>
-      <c r="J104">
+      <c r="M104">
         <v>418.9335160021053</v>
       </c>
-      <c r="K104">
+      <c r="N104">
         <v>1488.953268753855</v>
+      </c>
+      <c r="O104">
+        <v>816.9442854555032</v>
+      </c>
+      <c r="P104">
+        <v>294.42329219768</v>
+      </c>
+      <c r="Q104">
+        <v>377.5856911006737</v>
       </c>
     </row>
     <row r="105">
@@ -4877,13 +6761,31 @@
         <v>514.384766757488</v>
       </c>
       <c r="I105">
+        <v>198.579146504402</v>
+      </c>
+      <c r="J105">
+        <v>145.699033498764</v>
+      </c>
+      <c r="K105">
+        <v>170.106586754322</v>
+      </c>
+      <c r="L105">
         <v>0.9249343302947369</v>
       </c>
-      <c r="J105">
+      <c r="M105">
         <v>30.66852345052632</v>
       </c>
-      <c r="K105">
+      <c r="N105">
         <v>108.2915298436817</v>
+      </c>
+      <c r="O105">
+        <v>41.8061361061899</v>
+      </c>
+      <c r="P105">
+        <v>30.6734807365819</v>
+      </c>
+      <c r="Q105">
+        <v>35.8119130009099</v>
       </c>
     </row>
     <row r="106">
@@ -4920,13 +6822,31 @@
         <v>4388.75413790345</v>
       </c>
       <c r="I106">
+        <v>2081.5348791033</v>
+      </c>
+      <c r="J106">
+        <v>1081.12684638798</v>
+      </c>
+      <c r="K106">
+        <v>1226.09241241217</v>
+      </c>
+      <c r="L106">
         <v>8.7751457692</v>
       </c>
-      <c r="J106">
+      <c r="M106">
         <v>258.9721726147369</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>923.9482395586211</v>
+      </c>
+      <c r="O106">
+        <v>438.2178692849054</v>
+      </c>
+      <c r="P106">
+        <v>227.6056518711537</v>
+      </c>
+      <c r="Q106">
+        <v>258.1247184025621</v>
       </c>
     </row>
     <row r="107">
@@ -4963,13 +6883,31 @@
         <v>943.515495836735</v>
       </c>
       <c r="I107">
+        <v>296.484723091125</v>
+      </c>
+      <c r="J107">
+        <v>251.889283418655</v>
+      </c>
+      <c r="K107">
+        <v>395.141489326954</v>
+      </c>
+      <c r="L107">
         <v>3.76348712631579</v>
       </c>
-      <c r="J107">
+      <c r="M107">
         <v>76.06409038736842</v>
       </c>
-      <c r="K107">
+      <c r="N107">
         <v>198.6348412287863</v>
+      </c>
+      <c r="O107">
+        <v>62.41783644023684</v>
+      </c>
+      <c r="P107">
+        <v>53.02932282498</v>
+      </c>
+      <c r="Q107">
+        <v>83.18768196356926</v>
       </c>
     </row>
     <row r="108">
@@ -5006,13 +6944,31 @@
         <v>420.570912539959</v>
       </c>
       <c r="I108">
+        <v>133.849712312222</v>
+      </c>
+      <c r="J108">
+        <v>109.799065709114</v>
+      </c>
+      <c r="K108">
+        <v>176.922134518623</v>
+      </c>
+      <c r="L108">
         <v>0.9896879685684211</v>
       </c>
-      <c r="J108">
+      <c r="M108">
         <v>28.79099055157895</v>
       </c>
-      <c r="K108">
+      <c r="N108">
         <v>88.54124474525453</v>
+      </c>
+      <c r="O108">
+        <v>28.17888680257305</v>
+      </c>
+      <c r="P108">
+        <v>23.11559278086611</v>
+      </c>
+      <c r="Q108">
+        <v>37.24676516181538</v>
       </c>
     </row>
     <row r="109">
@@ -5049,13 +7005,31 @@
         <v>3494.52579241991</v>
       </c>
       <c r="I109">
+        <v>2074.18768298626</v>
+      </c>
+      <c r="J109">
+        <v>712.5743532478811</v>
+      </c>
+      <c r="K109">
+        <v>707.76375618577</v>
+      </c>
+      <c r="L109">
         <v>4.592793083536842</v>
       </c>
-      <c r="J109">
+      <c r="M109">
         <v>171.5568738568421</v>
       </c>
-      <c r="K109">
+      <c r="N109">
         <v>735.6896405094548</v>
+      </c>
+      <c r="O109">
+        <v>436.6710911550021</v>
+      </c>
+      <c r="P109">
+        <v>150.0156533153434</v>
+      </c>
+      <c r="Q109">
+        <v>149.0028960391095</v>
       </c>
     </row>
     <row r="110">
@@ -5092,13 +7066,31 @@
         <v>321.864012271166</v>
       </c>
       <c r="I110">
+        <v>138.010782897472</v>
+      </c>
+      <c r="J110">
+        <v>71.73772987723351</v>
+      </c>
+      <c r="K110">
+        <v>112.11549949646</v>
+      </c>
+      <c r="L110">
         <v>0.9233930372631579</v>
       </c>
-      <c r="J110">
+      <c r="M110">
         <v>22.14693414105263</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>67.76084468866654</v>
+      </c>
+      <c r="O110">
+        <v>29.05490166262569</v>
+      </c>
+      <c r="P110">
+        <v>15.10267997415442</v>
+      </c>
+      <c r="Q110">
+        <v>23.60326305188632</v>
       </c>
     </row>
   </sheetData>
